--- a/106-2教科書/02.採購/招標議價.xlsx
+++ b/106-2教科書/02.採購/招標議價.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="253">
   <si>
     <t>部別</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -785,6 +785,14 @@
   </si>
   <si>
     <t>國立彰化高商106學年度第二學期教科書採購招標議價作業</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1292,13 +1300,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:AD75"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1015625" defaultRowHeight="16.25" x14ac:dyDescent="0.45"/>
@@ -1319,7 +1327,7 @@
     <col min="16" max="16384" width="7.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.350000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="20.350000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>250</v>
       </c>
@@ -1337,8 +1345,8 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:15" ht="3.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="3.4" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +1393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>210.37</v>
       </c>
       <c r="L4" s="6">
-        <f>G4*K4</f>
+        <f t="shared" ref="L4:L35" si="0">G4*K4</f>
         <v>13042.94</v>
       </c>
       <c r="M4" s="3" t="str">
@@ -1435,7 +1443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1464,18 +1472,18 @@
         <v>232</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J67" si="0">I5*0.965</f>
+        <f t="shared" ref="J5:J67" si="1">I5*0.965</f>
         <v>223.88</v>
       </c>
       <c r="K5" s="3">
         <v>223.88</v>
       </c>
       <c r="L5" s="6">
-        <f>G5*K5</f>
+        <f t="shared" si="0"/>
         <v>51940.159999999996</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f t="shared" ref="M5:M68" si="1">IF(N5-G5=0,"",N5-G5)</f>
+        <f t="shared" ref="M5:M68" si="2">IF(N5-G5=0,"",N5-G5)</f>
         <v/>
       </c>
       <c r="N5" s="11">
@@ -1485,7 +1493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1514,18 +1522,18 @@
         <v>248</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>239.32</v>
       </c>
       <c r="K6" s="3">
         <v>239.32</v>
       </c>
       <c r="L6" s="6">
-        <f>G6*K6</f>
+        <f t="shared" si="0"/>
         <v>58872.72</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N6" s="11">
@@ -1535,7 +1543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1564,18 +1572,18 @@
         <v>228</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220.01999999999998</v>
       </c>
       <c r="K7" s="3">
         <v>220.01999999999998</v>
       </c>
       <c r="L7" s="6">
-        <f>G7*K7</f>
+        <f t="shared" si="0"/>
         <v>33883.079999999994</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N7" s="11">
@@ -1585,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1614,18 +1622,18 @@
         <v>220</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>212.29999999999998</v>
       </c>
       <c r="K8" s="3">
         <v>212.29999999999998</v>
       </c>
       <c r="L8" s="6">
-        <f>G8*K8</f>
+        <f t="shared" si="0"/>
         <v>34817.199999999997</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="N8" s="11">
@@ -1635,7 +1643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1664,18 +1672,18 @@
         <v>168</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>162.12</v>
       </c>
       <c r="K9" s="3">
         <v>162.12</v>
       </c>
       <c r="L9" s="6">
-        <f>G9*K9</f>
+        <f t="shared" si="0"/>
         <v>10051.44</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N9" s="11">
@@ -1685,7 +1693,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1714,18 +1722,18 @@
         <v>198</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>191.07</v>
       </c>
       <c r="K10" s="3">
         <v>191.07</v>
       </c>
       <c r="L10" s="6">
-        <f>G10*K10</f>
+        <f t="shared" si="0"/>
         <v>15094.529999999999</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N10" s="11">
@@ -1735,7 +1743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1764,18 +1772,18 @@
         <v>210</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>202.65</v>
       </c>
       <c r="K11" s="3">
         <v>202.65</v>
       </c>
       <c r="L11" s="6">
-        <f>G11*K11</f>
+        <f t="shared" si="0"/>
         <v>12564.300000000001</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N11" s="11">
@@ -1785,7 +1793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1814,18 +1822,18 @@
         <v>331</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>319.41499999999996</v>
       </c>
       <c r="K12" s="3">
         <v>319.41499999999996</v>
       </c>
       <c r="L12" s="6">
-        <f>G12*K12</f>
+        <f t="shared" si="0"/>
         <v>24594.954999999998</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N12" s="11">
@@ -1834,8 +1842,11 @@
       <c r="O12" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P12" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1862,18 +1873,18 @@
         <v>200</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="K13" s="3">
         <v>193</v>
       </c>
       <c r="L13" s="6">
-        <f>G13*K13</f>
+        <f t="shared" si="0"/>
         <v>30687</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N13" s="11">
@@ -1882,8 +1893,11 @@
       <c r="O13" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P13" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -1910,18 +1924,18 @@
         <v>150</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144.75</v>
       </c>
       <c r="K14" s="3">
         <v>144.75</v>
       </c>
       <c r="L14" s="6">
-        <f>G14*K14</f>
+        <f t="shared" si="0"/>
         <v>13896</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N14" s="11">
@@ -1931,7 +1945,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -1960,18 +1974,18 @@
         <v>160</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154.4</v>
       </c>
       <c r="K15" s="3">
         <v>154.4</v>
       </c>
       <c r="L15" s="6">
-        <f>G15*K15</f>
+        <f t="shared" si="0"/>
         <v>12043.2</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N15" s="11">
@@ -1981,7 +1995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2008,18 +2022,18 @@
         <v>160</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154.4</v>
       </c>
       <c r="K16" s="3">
         <v>154.4</v>
       </c>
       <c r="L16" s="6">
-        <f>G16*K16</f>
+        <f t="shared" si="0"/>
         <v>84611.199999999997</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="N16" s="11">
@@ -2029,7 +2043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -2056,18 +2070,18 @@
         <v>160</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154.4</v>
       </c>
       <c r="K17" s="3">
         <v>154.4</v>
       </c>
       <c r="L17" s="6">
-        <f>G17*K17</f>
+        <f t="shared" si="0"/>
         <v>14822.400000000001</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N17" s="11">
@@ -2077,7 +2091,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2106,18 +2120,18 @@
         <v>262</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>252.82999999999998</v>
       </c>
       <c r="K18" s="3">
         <v>252.82999999999998</v>
       </c>
       <c r="L18" s="6">
-        <f>G18*K18</f>
+        <f t="shared" si="0"/>
         <v>38935.82</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N18" s="11">
@@ -2126,8 +2140,11 @@
       <c r="O18" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P18" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2156,18 +2173,18 @@
         <v>155</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149.57499999999999</v>
       </c>
       <c r="K19" s="3">
         <v>149.57499999999999</v>
       </c>
       <c r="L19" s="6">
-        <f>G19*K19</f>
+        <f t="shared" si="0"/>
         <v>104552.92499999999</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N19" s="11">
@@ -2177,7 +2194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -2206,18 +2223,18 @@
         <v>155</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149.57499999999999</v>
       </c>
       <c r="K20" s="3">
         <v>149.57499999999999</v>
       </c>
       <c r="L20" s="6">
-        <f>G20*K20</f>
+        <f t="shared" si="0"/>
         <v>11666.849999999999</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N20" s="11">
@@ -2227,7 +2244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2256,18 +2273,18 @@
         <v>168</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>162.12</v>
       </c>
       <c r="K21" s="3">
         <v>162.12</v>
       </c>
       <c r="L21" s="6">
-        <f>G21*K21</f>
+        <f t="shared" si="0"/>
         <v>113321.88</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N21" s="11">
@@ -2277,7 +2294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2306,18 +2323,18 @@
         <v>125</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120.625</v>
       </c>
       <c r="K22" s="3">
         <v>120.625</v>
       </c>
       <c r="L22" s="6">
-        <f>G22*K22</f>
+        <f t="shared" si="0"/>
         <v>77200</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N22" s="11">
@@ -2327,7 +2344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -2356,18 +2373,18 @@
         <v>160</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154.4</v>
       </c>
       <c r="K23" s="3">
         <v>154.4</v>
       </c>
       <c r="L23" s="6">
-        <f>G23*K23</f>
+        <f t="shared" si="0"/>
         <v>12043.2</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N23" s="11">
@@ -2377,7 +2394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2406,18 +2423,18 @@
         <v>210</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>202.65</v>
       </c>
       <c r="K24" s="3">
         <v>202.65</v>
       </c>
       <c r="L24" s="6">
-        <f>G24*K24</f>
+        <f t="shared" si="0"/>
         <v>94637.55</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N24" s="11">
@@ -2427,7 +2444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -2456,18 +2473,18 @@
         <v>240</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231.6</v>
       </c>
       <c r="K25" s="3">
         <v>231.6</v>
       </c>
       <c r="L25" s="6">
-        <f>G25*K25</f>
+        <f t="shared" si="0"/>
         <v>97966.8</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="N25" s="11">
@@ -2477,7 +2494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2506,18 +2523,18 @@
         <v>230</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>221.95</v>
       </c>
       <c r="K26" s="3">
         <v>221.95</v>
       </c>
       <c r="L26" s="6">
-        <f>G26*K26</f>
+        <f t="shared" si="0"/>
         <v>103428.7</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="N26" s="11">
@@ -2527,7 +2544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2556,18 +2573,18 @@
         <v>240</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231.6</v>
       </c>
       <c r="K27" s="3">
         <v>231.6</v>
       </c>
       <c r="L27" s="6">
-        <f>G27*K27</f>
+        <f t="shared" si="0"/>
         <v>126222</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N27" s="11">
@@ -2577,7 +2594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -2606,18 +2623,18 @@
         <v>240</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231.6</v>
       </c>
       <c r="K28" s="3">
         <v>231.6</v>
       </c>
       <c r="L28" s="6">
-        <f>G28*K28</f>
+        <f t="shared" si="0"/>
         <v>18064.8</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N28" s="11">
@@ -2627,7 +2644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -2656,18 +2673,18 @@
         <v>210</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>202.65</v>
       </c>
       <c r="K29" s="3">
         <v>202.65</v>
       </c>
       <c r="L29" s="6">
-        <f>G29*K29</f>
+        <f t="shared" si="0"/>
         <v>19859.7</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N29" s="11">
@@ -2677,7 +2694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -2706,18 +2723,18 @@
         <v>200</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="K30" s="3">
         <v>193</v>
       </c>
       <c r="L30" s="6">
-        <f>G30*K30</f>
+        <f t="shared" si="0"/>
         <v>90324</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N30" s="11">
@@ -2727,7 +2744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
@@ -2756,18 +2773,18 @@
         <v>200</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="K31" s="3">
         <v>193</v>
       </c>
       <c r="L31" s="6">
-        <f>G31*K31</f>
+        <f t="shared" si="0"/>
         <v>15054</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N31" s="11">
@@ -2777,7 +2794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2806,18 +2823,18 @@
         <v>200</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="K32" s="3">
         <v>193</v>
       </c>
       <c r="L32" s="6">
-        <f>G32*K32</f>
+        <f t="shared" si="0"/>
         <v>75270</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N32" s="11">
@@ -2827,7 +2844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2856,18 +2873,18 @@
         <v>250</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>241.25</v>
       </c>
       <c r="K33" s="3">
         <v>241.25</v>
       </c>
       <c r="L33" s="6">
-        <f>G33*K33</f>
+        <f t="shared" si="0"/>
         <v>93605</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N33" s="11">
@@ -2877,7 +2894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2906,18 +2923,18 @@
         <v>185</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>178.52500000000001</v>
       </c>
       <c r="K34" s="3">
         <v>178.52500000000001</v>
       </c>
       <c r="L34" s="6">
-        <f>G34*K34</f>
+        <f t="shared" si="0"/>
         <v>97831.7</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="N34" s="11">
@@ -2927,7 +2944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2956,18 +2973,18 @@
         <v>185</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>178.52500000000001</v>
       </c>
       <c r="K35" s="3">
         <v>178.52500000000001</v>
       </c>
       <c r="L35" s="6">
-        <f>G35*K35</f>
+        <f t="shared" si="0"/>
         <v>27492.850000000002</v>
       </c>
       <c r="M35" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N35" s="11">
@@ -2976,8 +2993,11 @@
       <c r="O35" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P35" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3006,18 +3026,18 @@
         <v>231</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>222.91499999999999</v>
       </c>
       <c r="K36" s="3">
         <v>222.91499999999999</v>
       </c>
       <c r="L36" s="6">
-        <f>G36*K36</f>
+        <f t="shared" ref="L36:L67" si="3">G36*K36</f>
         <v>36558.06</v>
       </c>
       <c r="M36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N36" s="11">
@@ -3026,8 +3046,11 @@
       <c r="O36" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P36" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -3056,18 +3079,18 @@
         <v>209</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>201.685</v>
       </c>
       <c r="K37" s="3">
         <v>201.685</v>
       </c>
       <c r="L37" s="6">
-        <f>G37*K37</f>
+        <f t="shared" si="3"/>
         <v>20975.24</v>
       </c>
       <c r="M37" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N37" s="11">
@@ -3076,8 +3099,11 @@
       <c r="O37" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P37" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -3106,18 +3132,18 @@
         <v>125</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120.625</v>
       </c>
       <c r="K38" s="3">
         <v>120.625</v>
       </c>
       <c r="L38" s="6">
-        <f>G38*K38</f>
+        <f t="shared" si="3"/>
         <v>12545</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N38" s="11">
@@ -3127,7 +3153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3156,18 +3182,18 @@
         <v>125</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120.625</v>
       </c>
       <c r="K39" s="3">
         <v>120.625</v>
       </c>
       <c r="L39" s="6">
-        <f>G39*K39</f>
+        <f t="shared" si="3"/>
         <v>9529.375</v>
       </c>
       <c r="M39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N39" s="11">
@@ -3177,7 +3203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -3206,18 +3232,18 @@
         <v>140</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>135.1</v>
       </c>
       <c r="K40" s="3">
         <v>135.1</v>
       </c>
       <c r="L40" s="6">
-        <f>G40*K40</f>
+        <f t="shared" si="3"/>
         <v>96191.2</v>
       </c>
       <c r="M40" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N40" s="11">
@@ -3227,7 +3253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3254,18 +3280,18 @@
         <v>230</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>221.95</v>
       </c>
       <c r="K41" s="3">
         <v>221.95</v>
       </c>
       <c r="L41" s="6">
-        <f>G41*K41</f>
+        <f t="shared" si="3"/>
         <v>34624.199999999997</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="N41" s="11">
@@ -3275,7 +3301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -3304,18 +3330,18 @@
         <v>230</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>221.95</v>
       </c>
       <c r="K42" s="3">
         <v>221.95</v>
       </c>
       <c r="L42" s="6">
-        <f>G42*K42</f>
+        <f t="shared" si="3"/>
         <v>17312.099999999999</v>
       </c>
       <c r="M42" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N42" s="11">
@@ -3325,7 +3351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3354,18 +3380,18 @@
         <v>230</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>221.95</v>
       </c>
       <c r="K43" s="3">
         <v>221.95</v>
       </c>
       <c r="L43" s="6">
-        <f>G43*K43</f>
+        <f t="shared" si="3"/>
         <v>86560.5</v>
       </c>
       <c r="M43" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N43" s="11">
@@ -3375,7 +3401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -3404,18 +3430,18 @@
         <v>230</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>221.95</v>
       </c>
       <c r="K44" s="3">
         <v>221.95</v>
       </c>
       <c r="L44" s="6">
-        <f>G44*K44</f>
+        <f t="shared" si="3"/>
         <v>21307.199999999997</v>
       </c>
       <c r="M44" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N44" s="11">
@@ -3425,7 +3451,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3452,18 +3478,18 @@
         <v>335</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323.27499999999998</v>
       </c>
       <c r="K45" s="3">
         <v>323.27499999999998</v>
       </c>
       <c r="L45" s="6">
-        <f>G45*K45</f>
+        <f t="shared" si="3"/>
         <v>99891.974999999991</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="N45" s="11">
@@ -3473,7 +3499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3500,18 +3526,18 @@
         <v>145</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>139.92499999999998</v>
       </c>
       <c r="K46" s="3">
         <v>139.92499999999998</v>
       </c>
       <c r="L46" s="6">
-        <f>G46*K46</f>
+        <f t="shared" si="3"/>
         <v>89551.999999999985</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13</v>
       </c>
       <c r="N46" s="11">
@@ -3521,7 +3547,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -3548,18 +3574,18 @@
         <v>145</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>139.92499999999998</v>
       </c>
       <c r="K47" s="3">
         <v>139.92499999999998</v>
       </c>
       <c r="L47" s="6">
-        <f>G47*K47</f>
+        <f t="shared" si="3"/>
         <v>15391.749999999998</v>
       </c>
       <c r="M47" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N47" s="11">
@@ -3569,7 +3595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3598,18 +3624,18 @@
         <v>146</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140.88999999999999</v>
       </c>
       <c r="K48" s="3">
-        <v>140.88999999999999</v>
+        <v>141</v>
       </c>
       <c r="L48" s="6">
-        <f>G48*K48</f>
-        <v>98482.109999999986</v>
+        <f t="shared" si="3"/>
+        <v>98559</v>
       </c>
       <c r="M48" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N48" s="11">
@@ -3617,6 +3643,9 @@
       </c>
       <c r="O48" s="1">
         <v>19</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -3648,18 +3677,18 @@
         <v>278</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>268.27</v>
       </c>
       <c r="K49" s="3">
         <v>268.27</v>
       </c>
       <c r="L49" s="6">
-        <f>G49*K49</f>
+        <f t="shared" si="3"/>
         <v>125550.35999999999</v>
       </c>
       <c r="M49" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N49" s="11">
@@ -3698,18 +3727,18 @@
         <v>278</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>268.27</v>
       </c>
       <c r="K50" s="3">
         <v>268.27</v>
       </c>
       <c r="L50" s="6">
-        <f>G50*K50</f>
+        <f t="shared" si="3"/>
         <v>20925.059999999998</v>
       </c>
       <c r="M50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N50" s="11">
@@ -3748,18 +3777,18 @@
         <v>278</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>268.27</v>
       </c>
       <c r="K51" s="3">
         <v>268.27</v>
       </c>
       <c r="L51" s="6">
-        <f>G51*K51</f>
+        <f t="shared" si="3"/>
         <v>126086.9</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="N51" s="11">
@@ -3798,18 +3827,18 @@
         <v>278</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>268.27</v>
       </c>
       <c r="K52" s="3">
         <v>268.27</v>
       </c>
       <c r="L52" s="6">
-        <f>G52*K52</f>
+        <f t="shared" si="3"/>
         <v>25753.919999999998</v>
       </c>
       <c r="M52" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N52" s="11">
@@ -3848,18 +3877,18 @@
         <v>280</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270.2</v>
       </c>
       <c r="K53" s="3">
         <v>270.2</v>
       </c>
       <c r="L53" s="6">
-        <f>G53*K53</f>
+        <f t="shared" si="3"/>
         <v>25939.199999999997</v>
       </c>
       <c r="M53" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N53" s="11">
@@ -3898,18 +3927,18 @@
         <v>206</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>198.79</v>
       </c>
       <c r="K54" s="3">
         <v>198.79</v>
       </c>
       <c r="L54" s="6">
-        <f>G54*K54</f>
+        <f t="shared" si="3"/>
         <v>30613.66</v>
       </c>
       <c r="M54" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N54" s="11">
@@ -3948,18 +3977,18 @@
         <v>215</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>207.47499999999999</v>
       </c>
       <c r="K55" s="3">
         <v>207.47499999999999</v>
       </c>
       <c r="L55" s="6">
-        <f>G55*K55</f>
+        <f t="shared" si="3"/>
         <v>31951.149999999998</v>
       </c>
       <c r="M55" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N55" s="11">
@@ -3998,18 +4027,18 @@
         <v>195</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>188.17499999999998</v>
       </c>
       <c r="K56" s="3">
         <v>188.17499999999998</v>
       </c>
       <c r="L56" s="6">
-        <f>G56*K56</f>
+        <f t="shared" si="3"/>
         <v>28978.949999999997</v>
       </c>
       <c r="M56" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N56" s="11">
@@ -4048,18 +4077,18 @@
         <v>199</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>192.035</v>
       </c>
       <c r="K57" s="3">
         <v>192.035</v>
       </c>
       <c r="L57" s="6">
-        <f>G57*K57</f>
+        <f t="shared" si="3"/>
         <v>105235.18</v>
       </c>
       <c r="M57" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N57" s="11">
@@ -4098,18 +4127,18 @@
         <v>218</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210.37</v>
       </c>
       <c r="K58" s="3">
         <v>210.37</v>
       </c>
       <c r="L58" s="6">
-        <f>G58*K58</f>
+        <f t="shared" si="3"/>
         <v>16408.86</v>
       </c>
       <c r="M58" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N58" s="11">
@@ -4148,18 +4177,18 @@
         <v>228</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220.01999999999998</v>
       </c>
       <c r="K59" s="3">
         <v>220.01999999999998</v>
       </c>
       <c r="L59" s="6">
-        <f>G59*K59</f>
+        <f t="shared" si="3"/>
         <v>36083.279999999999</v>
       </c>
       <c r="M59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="N59" s="11">
@@ -4198,18 +4227,18 @@
         <v>233</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224.845</v>
       </c>
       <c r="K60" s="3">
         <v>224.845</v>
       </c>
       <c r="L60" s="6">
-        <f>G60*K60</f>
+        <f t="shared" si="3"/>
         <v>24732.95</v>
       </c>
       <c r="M60" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N60" s="11">
@@ -4248,18 +4277,18 @@
         <v>249</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240.285</v>
       </c>
       <c r="K61" s="3">
         <v>240.285</v>
       </c>
       <c r="L61" s="6">
-        <f>G61*K61</f>
+        <f t="shared" si="3"/>
         <v>14417.1</v>
       </c>
       <c r="M61" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N61" s="11">
@@ -4298,18 +4327,18 @@
         <v>218</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210.37</v>
       </c>
       <c r="K62" s="3">
         <v>210.37</v>
       </c>
       <c r="L62" s="6">
-        <f>G62*K62</f>
+        <f t="shared" si="3"/>
         <v>20195.52</v>
       </c>
       <c r="M62" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N62" s="11">
@@ -4348,18 +4377,18 @@
         <v>205</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>197.82499999999999</v>
       </c>
       <c r="K63" s="3">
         <v>197.82499999999999</v>
       </c>
       <c r="L63" s="6">
-        <f>G63*K63</f>
+        <f t="shared" si="3"/>
         <v>21760.75</v>
       </c>
       <c r="M63" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N63" s="11">
@@ -4398,18 +4427,18 @@
         <v>205</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>197.82499999999999</v>
       </c>
       <c r="K64" s="3">
         <v>197.82499999999999</v>
       </c>
       <c r="L64" s="6">
-        <f>G64*K64</f>
+        <f t="shared" si="3"/>
         <v>18991.199999999997</v>
       </c>
       <c r="M64" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N64" s="11">
@@ -4448,18 +4477,18 @@
         <v>187</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180.45499999999998</v>
       </c>
       <c r="K65" s="3">
         <v>180.45499999999998</v>
       </c>
       <c r="L65" s="6">
-        <f>G65*K65</f>
+        <f t="shared" si="3"/>
         <v>14075.489999999998</v>
       </c>
       <c r="M65" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N65" s="11">
@@ -4496,18 +4525,18 @@
         <v>285</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>275.02499999999998</v>
       </c>
       <c r="K66" s="3">
         <v>275.02499999999998</v>
       </c>
       <c r="L66" s="6">
-        <f>G66*K66</f>
+        <f t="shared" si="3"/>
         <v>3300.2999999999997</v>
       </c>
       <c r="M66" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N66" s="11">
@@ -4544,18 +4573,18 @@
         <v>265</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255.72499999999999</v>
       </c>
       <c r="K67" s="3">
         <v>255.72499999999999</v>
       </c>
       <c r="L67" s="6">
-        <f>G67*K67</f>
+        <f t="shared" si="3"/>
         <v>39893.1</v>
       </c>
       <c r="M67" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N67" s="11">
@@ -4592,18 +4621,18 @@
         <v>254</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" ref="J68:J73" si="2">I68*0.965</f>
+        <f t="shared" ref="J68:J73" si="4">I68*0.965</f>
         <v>245.10999999999999</v>
       </c>
       <c r="K68" s="3">
         <v>245.10999999999999</v>
       </c>
       <c r="L68" s="6">
-        <f>G68*K68</f>
+        <f t="shared" ref="L68:L99" si="5">G68*K68</f>
         <v>6127.75</v>
       </c>
       <c r="M68" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N68" s="11">
@@ -4642,18 +4671,18 @@
         <v>187</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>180.45499999999998</v>
       </c>
       <c r="K69" s="3">
         <v>180.45499999999998</v>
       </c>
       <c r="L69" s="6">
-        <f>G69*K69</f>
+        <f t="shared" si="5"/>
         <v>17323.68</v>
       </c>
       <c r="M69" s="3" t="str">
-        <f t="shared" ref="M69:M73" si="3">IF(N69-G69=0,"",N69-G69)</f>
+        <f t="shared" ref="M69:M73" si="6">IF(N69-G69=0,"",N69-G69)</f>
         <v/>
       </c>
       <c r="N69" s="11">
@@ -4692,18 +4721,18 @@
         <v>180</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>173.7</v>
       </c>
       <c r="K70" s="3">
         <v>173.7</v>
       </c>
       <c r="L70" s="6">
-        <f>G70*K70</f>
+        <f t="shared" si="5"/>
         <v>94666.5</v>
       </c>
       <c r="M70" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N70" s="11">
@@ -4742,18 +4771,18 @@
         <v>253</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>244.14499999999998</v>
       </c>
       <c r="K71" s="3">
         <v>244.14499999999998</v>
       </c>
       <c r="L71" s="6">
-        <f>G71*K71</f>
+        <f t="shared" si="5"/>
         <v>25391.079999999998</v>
       </c>
       <c r="M71" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N71" s="11">
@@ -4792,18 +4821,18 @@
         <v>241</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>232.565</v>
       </c>
       <c r="K72" s="3">
         <v>232.565</v>
       </c>
       <c r="L72" s="6">
-        <f>G72*K72</f>
+        <f t="shared" si="5"/>
         <v>18372.634999999998</v>
       </c>
       <c r="M72" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N72" s="11">
@@ -4842,18 +4871,18 @@
         <v>232</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>223.88</v>
       </c>
       <c r="K73" s="3">
         <v>223.88</v>
       </c>
       <c r="L73" s="6">
-        <f>G73*K73</f>
+        <f t="shared" si="5"/>
         <v>13880.56</v>
       </c>
       <c r="M73" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N73" s="11">
@@ -4895,7 +4924,7 @@
       </c>
       <c r="L75" s="8">
         <f>SUBTOTAL(9,L4:L73)</f>
-        <v>3173974.7450000006</v>
+        <v>3174051.6350000007</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>

--- a/106-2教科書/02.採購/招標議價.xlsx
+++ b/106-2教科書/02.採購/招標議價.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\106設備組\03教科書\106-2教科書\02.採購\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="302" yWindow="143" windowWidth="18712" windowHeight="8482"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="書單(總)" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'書單(總)'!$B$3:$B$73</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -800,7 +805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -989,7 +994,29 @@
     <cellStyle name="一般 2" xfId="1"/>
     <cellStyle name="一般 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1003,10 +1030,18 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1055,7 +1090,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,7 +1125,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1306,28 +1341,28 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.1015625" defaultRowHeight="16.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.89453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.15625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.15625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.3125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.578125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="7.1015625" style="1"/>
+    <col min="1" max="1" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="7.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.350000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="21">
       <c r="A1" s="9" t="s">
         <v>250</v>
       </c>
@@ -1345,8 +1380,8 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="3.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="3.4" customHeight="1"/>
+    <row r="3" spans="1:16">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1422,8 +1457,8 @@
         <v>218</v>
       </c>
       <c r="J4" s="3">
-        <f>I4*0.965</f>
-        <v>210.37</v>
+        <f>ROUND(I4*0.975,0)</f>
+        <v>213</v>
       </c>
       <c r="K4" s="3">
         <v>210.37</v>
@@ -1443,7 +1478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1472,8 +1507,8 @@
         <v>232</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J67" si="1">I5*0.965</f>
-        <v>223.88</v>
+        <f t="shared" ref="J5:J68" si="1">ROUND(I5*0.975,0)</f>
+        <v>226</v>
       </c>
       <c r="K5" s="3">
         <v>223.88</v>
@@ -1493,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1558,7 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>239.32</v>
+        <v>242</v>
       </c>
       <c r="K6" s="3">
         <v>239.32</v>
@@ -1543,7 +1578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1573,7 +1608,7 @@
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>220.01999999999998</v>
+        <v>222</v>
       </c>
       <c r="K7" s="3">
         <v>220.01999999999998</v>
@@ -1593,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1623,7 +1658,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>212.29999999999998</v>
+        <v>215</v>
       </c>
       <c r="K8" s="3">
         <v>212.29999999999998</v>
@@ -1643,7 +1678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1673,7 +1708,7 @@
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>162.12</v>
+        <v>164</v>
       </c>
       <c r="K9" s="3">
         <v>162.12</v>
@@ -1693,7 +1728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1758,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>191.07</v>
+        <v>193</v>
       </c>
       <c r="K10" s="3">
         <v>191.07</v>
@@ -1743,7 +1778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +1808,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>202.65</v>
+        <v>205</v>
       </c>
       <c r="K11" s="3">
         <v>202.65</v>
@@ -1793,7 +1828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1823,7 +1858,7 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>319.41499999999996</v>
+        <v>323</v>
       </c>
       <c r="K12" s="3">
         <v>319.41499999999996</v>
@@ -1846,7 +1881,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1874,7 +1909,7 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" s="3">
         <v>193</v>
@@ -1897,7 +1932,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -1925,7 +1960,7 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>144.75</v>
+        <v>146</v>
       </c>
       <c r="K14" s="3">
         <v>144.75</v>
@@ -1945,7 +1980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -1975,7 +2010,7 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>154.4</v>
+        <v>156</v>
       </c>
       <c r="K15" s="3">
         <v>154.4</v>
@@ -1995,7 +2030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2058,7 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>154.4</v>
+        <v>156</v>
       </c>
       <c r="K16" s="3">
         <v>154.4</v>
@@ -2043,7 +2078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -2071,7 +2106,7 @@
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>154.4</v>
+        <v>156</v>
       </c>
       <c r="K17" s="3">
         <v>154.4</v>
@@ -2091,7 +2126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2121,7 +2156,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>252.82999999999998</v>
+        <v>255</v>
       </c>
       <c r="K18" s="3">
         <v>252.82999999999998</v>
@@ -2144,7 +2179,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2174,7 +2209,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>149.57499999999999</v>
+        <v>151</v>
       </c>
       <c r="K19" s="3">
         <v>149.57499999999999</v>
@@ -2194,7 +2229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -2224,7 +2259,7 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>149.57499999999999</v>
+        <v>151</v>
       </c>
       <c r="K20" s="3">
         <v>149.57499999999999</v>
@@ -2244,7 +2279,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2274,7 +2309,7 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>162.12</v>
+        <v>164</v>
       </c>
       <c r="K21" s="3">
         <v>162.12</v>
@@ -2294,7 +2329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="J22" s="3">
         <f t="shared" si="1"/>
-        <v>120.625</v>
+        <v>122</v>
       </c>
       <c r="K22" s="3">
         <v>120.625</v>
@@ -2344,7 +2379,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -2374,7 +2409,7 @@
       </c>
       <c r="J23" s="3">
         <f t="shared" si="1"/>
-        <v>154.4</v>
+        <v>156</v>
       </c>
       <c r="K23" s="3">
         <v>154.4</v>
@@ -2394,7 +2429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2424,7 +2459,7 @@
       </c>
       <c r="J24" s="3">
         <f t="shared" si="1"/>
-        <v>202.65</v>
+        <v>205</v>
       </c>
       <c r="K24" s="3">
         <v>202.65</v>
@@ -2444,7 +2479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -2474,7 +2509,7 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" si="1"/>
-        <v>231.6</v>
+        <v>234</v>
       </c>
       <c r="K25" s="3">
         <v>231.6</v>
@@ -2494,7 +2529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2524,7 +2559,7 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="1"/>
-        <v>221.95</v>
+        <v>224</v>
       </c>
       <c r="K26" s="3">
         <v>221.95</v>
@@ -2544,7 +2579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2574,7 +2609,7 @@
       </c>
       <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>231.6</v>
+        <v>234</v>
       </c>
       <c r="K27" s="3">
         <v>231.6</v>
@@ -2594,7 +2629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -2624,7 +2659,7 @@
       </c>
       <c r="J28" s="3">
         <f t="shared" si="1"/>
-        <v>231.6</v>
+        <v>234</v>
       </c>
       <c r="K28" s="3">
         <v>231.6</v>
@@ -2644,7 +2679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -2674,7 +2709,7 @@
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>202.65</v>
+        <v>205</v>
       </c>
       <c r="K29" s="3">
         <v>202.65</v>
@@ -2694,7 +2729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +2759,7 @@
       </c>
       <c r="J30" s="3">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K30" s="3">
         <v>193</v>
@@ -2744,7 +2779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
@@ -2774,7 +2809,7 @@
       </c>
       <c r="J31" s="3">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K31" s="3">
         <v>193</v>
@@ -2794,7 +2829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2824,7 +2859,7 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K32" s="3">
         <v>193</v>
@@ -2844,7 +2879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2874,7 +2909,7 @@
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
-        <v>241.25</v>
+        <v>244</v>
       </c>
       <c r="K33" s="3">
         <v>241.25</v>
@@ -2894,7 +2929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +2959,7 @@
       </c>
       <c r="J34" s="3">
         <f t="shared" si="1"/>
-        <v>178.52500000000001</v>
+        <v>180</v>
       </c>
       <c r="K34" s="3">
         <v>178.52500000000001</v>
@@ -2944,7 +2979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +3009,7 @@
       </c>
       <c r="J35" s="3">
         <f t="shared" si="1"/>
-        <v>178.52500000000001</v>
+        <v>180</v>
       </c>
       <c r="K35" s="3">
         <v>178.52500000000001</v>
@@ -2997,7 +3032,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3027,7 +3062,7 @@
       </c>
       <c r="J36" s="3">
         <f t="shared" si="1"/>
-        <v>222.91499999999999</v>
+        <v>225</v>
       </c>
       <c r="K36" s="3">
         <v>222.91499999999999</v>
@@ -3050,7 +3085,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3115,7 @@
       </c>
       <c r="J37" s="3">
         <f t="shared" si="1"/>
-        <v>201.685</v>
+        <v>204</v>
       </c>
       <c r="K37" s="3">
         <v>201.685</v>
@@ -3103,7 +3138,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -3133,7 +3168,7 @@
       </c>
       <c r="J38" s="3">
         <f t="shared" si="1"/>
-        <v>120.625</v>
+        <v>122</v>
       </c>
       <c r="K38" s="3">
         <v>120.625</v>
@@ -3153,7 +3188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3183,7 +3218,7 @@
       </c>
       <c r="J39" s="3">
         <f t="shared" si="1"/>
-        <v>120.625</v>
+        <v>122</v>
       </c>
       <c r="K39" s="3">
         <v>120.625</v>
@@ -3203,7 +3238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -3233,7 +3268,7 @@
       </c>
       <c r="J40" s="3">
         <f t="shared" si="1"/>
-        <v>135.1</v>
+        <v>137</v>
       </c>
       <c r="K40" s="3">
         <v>135.1</v>
@@ -3253,7 +3288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3281,7 +3316,7 @@
       </c>
       <c r="J41" s="3">
         <f t="shared" si="1"/>
-        <v>221.95</v>
+        <v>224</v>
       </c>
       <c r="K41" s="3">
         <v>221.95</v>
@@ -3301,7 +3336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -3331,7 +3366,7 @@
       </c>
       <c r="J42" s="3">
         <f t="shared" si="1"/>
-        <v>221.95</v>
+        <v>224</v>
       </c>
       <c r="K42" s="3">
         <v>221.95</v>
@@ -3351,7 +3386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3381,7 +3416,7 @@
       </c>
       <c r="J43" s="3">
         <f t="shared" si="1"/>
-        <v>221.95</v>
+        <v>224</v>
       </c>
       <c r="K43" s="3">
         <v>221.95</v>
@@ -3401,7 +3436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -3431,7 +3466,7 @@
       </c>
       <c r="J44" s="3">
         <f t="shared" si="1"/>
-        <v>221.95</v>
+        <v>224</v>
       </c>
       <c r="K44" s="3">
         <v>221.95</v>
@@ -3451,7 +3486,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3479,7 +3514,7 @@
       </c>
       <c r="J45" s="3">
         <f t="shared" si="1"/>
-        <v>323.27499999999998</v>
+        <v>327</v>
       </c>
       <c r="K45" s="3">
         <v>323.27499999999998</v>
@@ -3499,7 +3534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3527,7 +3562,7 @@
       </c>
       <c r="J46" s="3">
         <f t="shared" si="1"/>
-        <v>139.92499999999998</v>
+        <v>141</v>
       </c>
       <c r="K46" s="3">
         <v>139.92499999999998</v>
@@ -3547,7 +3582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -3575,7 +3610,7 @@
       </c>
       <c r="J47" s="3">
         <f t="shared" si="1"/>
-        <v>139.92499999999998</v>
+        <v>141</v>
       </c>
       <c r="K47" s="3">
         <v>139.92499999999998</v>
@@ -3595,7 +3630,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3625,7 +3660,7 @@
       </c>
       <c r="J48" s="3">
         <f t="shared" si="1"/>
-        <v>140.88999999999999</v>
+        <v>142</v>
       </c>
       <c r="K48" s="3">
         <v>141</v>
@@ -3648,7 +3683,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3678,7 +3713,7 @@
       </c>
       <c r="J49" s="3">
         <f t="shared" si="1"/>
-        <v>268.27</v>
+        <v>271</v>
       </c>
       <c r="K49" s="3">
         <v>268.27</v>
@@ -3698,7 +3733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
@@ -3728,7 +3763,7 @@
       </c>
       <c r="J50" s="3">
         <f t="shared" si="1"/>
-        <v>268.27</v>
+        <v>271</v>
       </c>
       <c r="K50" s="3">
         <v>268.27</v>
@@ -3748,7 +3783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3778,7 +3813,7 @@
       </c>
       <c r="J51" s="3">
         <f t="shared" si="1"/>
-        <v>268.27</v>
+        <v>271</v>
       </c>
       <c r="K51" s="3">
         <v>268.27</v>
@@ -3798,7 +3833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15">
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
@@ -3828,7 +3863,7 @@
       </c>
       <c r="J52" s="3">
         <f t="shared" si="1"/>
-        <v>268.27</v>
+        <v>271</v>
       </c>
       <c r="K52" s="3">
         <v>268.27</v>
@@ -3848,7 +3883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -3878,7 +3913,7 @@
       </c>
       <c r="J53" s="3">
         <f t="shared" si="1"/>
-        <v>270.2</v>
+        <v>273</v>
       </c>
       <c r="K53" s="3">
         <v>270.2</v>
@@ -3898,7 +3933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3928,7 +3963,7 @@
       </c>
       <c r="J54" s="3">
         <f t="shared" si="1"/>
-        <v>198.79</v>
+        <v>201</v>
       </c>
       <c r="K54" s="3">
         <v>198.79</v>
@@ -3948,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -3978,7 +4013,7 @@
       </c>
       <c r="J55" s="3">
         <f t="shared" si="1"/>
-        <v>207.47499999999999</v>
+        <v>210</v>
       </c>
       <c r="K55" s="3">
         <v>207.47499999999999</v>
@@ -3998,7 +4033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -4028,7 +4063,7 @@
       </c>
       <c r="J56" s="3">
         <f t="shared" si="1"/>
-        <v>188.17499999999998</v>
+        <v>190</v>
       </c>
       <c r="K56" s="3">
         <v>188.17499999999998</v>
@@ -4048,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +4113,7 @@
       </c>
       <c r="J57" s="3">
         <f t="shared" si="1"/>
-        <v>192.035</v>
+        <v>194</v>
       </c>
       <c r="K57" s="3">
         <v>192.035</v>
@@ -4098,7 +4133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4128,7 +4163,7 @@
       </c>
       <c r="J58" s="3">
         <f t="shared" si="1"/>
-        <v>210.37</v>
+        <v>213</v>
       </c>
       <c r="K58" s="3">
         <v>210.37</v>
@@ -4148,7 +4183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4178,7 +4213,7 @@
       </c>
       <c r="J59" s="3">
         <f t="shared" si="1"/>
-        <v>220.01999999999998</v>
+        <v>222</v>
       </c>
       <c r="K59" s="3">
         <v>220.01999999999998</v>
@@ -4198,7 +4233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15">
       <c r="A60" s="3" t="s">
         <v>47</v>
       </c>
@@ -4228,7 +4263,7 @@
       </c>
       <c r="J60" s="3">
         <f t="shared" si="1"/>
-        <v>224.845</v>
+        <v>227</v>
       </c>
       <c r="K60" s="3">
         <v>224.845</v>
@@ -4248,7 +4283,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15">
       <c r="A61" s="3" t="s">
         <v>8</v>
       </c>
@@ -4278,7 +4313,7 @@
       </c>
       <c r="J61" s="3">
         <f t="shared" si="1"/>
-        <v>240.285</v>
+        <v>243</v>
       </c>
       <c r="K61" s="3">
         <v>240.285</v>
@@ -4298,7 +4333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15">
       <c r="A62" s="3" t="s">
         <v>47</v>
       </c>
@@ -4328,7 +4363,7 @@
       </c>
       <c r="J62" s="3">
         <f t="shared" si="1"/>
-        <v>210.37</v>
+        <v>213</v>
       </c>
       <c r="K62" s="3">
         <v>210.37</v>
@@ -4348,7 +4383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15">
       <c r="A63" s="3" t="s">
         <v>47</v>
       </c>
@@ -4378,7 +4413,7 @@
       </c>
       <c r="J63" s="3">
         <f t="shared" si="1"/>
-        <v>197.82499999999999</v>
+        <v>200</v>
       </c>
       <c r="K63" s="3">
         <v>197.82499999999999</v>
@@ -4398,7 +4433,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15">
       <c r="A64" s="3" t="s">
         <v>47</v>
       </c>
@@ -4428,7 +4463,7 @@
       </c>
       <c r="J64" s="3">
         <f t="shared" si="1"/>
-        <v>197.82499999999999</v>
+        <v>200</v>
       </c>
       <c r="K64" s="3">
         <v>197.82499999999999</v>
@@ -4448,7 +4483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15">
       <c r="A65" s="3" t="s">
         <v>47</v>
       </c>
@@ -4478,7 +4513,7 @@
       </c>
       <c r="J65" s="3">
         <f t="shared" si="1"/>
-        <v>180.45499999999998</v>
+        <v>182</v>
       </c>
       <c r="K65" s="3">
         <v>180.45499999999998</v>
@@ -4498,7 +4533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15">
       <c r="A66" s="3" t="s">
         <v>47</v>
       </c>
@@ -4526,7 +4561,7 @@
       </c>
       <c r="J66" s="3">
         <f t="shared" si="1"/>
-        <v>275.02499999999998</v>
+        <v>278</v>
       </c>
       <c r="K66" s="3">
         <v>275.02499999999998</v>
@@ -4546,7 +4581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15">
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
@@ -4574,7 +4609,7 @@
       </c>
       <c r="J67" s="3">
         <f t="shared" si="1"/>
-        <v>255.72499999999999</v>
+        <v>258</v>
       </c>
       <c r="K67" s="3">
         <v>255.72499999999999</v>
@@ -4594,7 +4629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15">
       <c r="A68" s="3" t="s">
         <v>47</v>
       </c>
@@ -4621,14 +4656,14 @@
         <v>254</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" ref="J68:J73" si="4">I68*0.965</f>
-        <v>245.10999999999999</v>
+        <f t="shared" si="1"/>
+        <v>248</v>
       </c>
       <c r="K68" s="3">
         <v>245.10999999999999</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" ref="L68:L99" si="5">G68*K68</f>
+        <f t="shared" ref="L68:L73" si="4">G68*K68</f>
         <v>6127.75</v>
       </c>
       <c r="M68" s="3" t="str">
@@ -4642,7 +4677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15">
       <c r="A69" s="3" t="s">
         <v>47</v>
       </c>
@@ -4671,14 +4706,14 @@
         <v>187</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="4"/>
-        <v>180.45499999999998</v>
+        <f t="shared" ref="J69:J73" si="5">ROUND(I69*0.975,0)</f>
+        <v>182</v>
       </c>
       <c r="K69" s="3">
         <v>180.45499999999998</v>
       </c>
       <c r="L69" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17323.68</v>
       </c>
       <c r="M69" s="3" t="str">
@@ -4692,7 +4727,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15">
       <c r="A70" s="3" t="s">
         <v>8</v>
       </c>
@@ -4721,14 +4756,14 @@
         <v>180</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="4"/>
-        <v>173.7</v>
+        <f t="shared" si="5"/>
+        <v>176</v>
       </c>
       <c r="K70" s="3">
         <v>173.7</v>
       </c>
       <c r="L70" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>94666.5</v>
       </c>
       <c r="M70" s="3" t="str">
@@ -4742,7 +4777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -4771,14 +4806,14 @@
         <v>253</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="4"/>
-        <v>244.14499999999998</v>
+        <f t="shared" si="5"/>
+        <v>247</v>
       </c>
       <c r="K71" s="3">
         <v>244.14499999999998</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25391.079999999998</v>
       </c>
       <c r="M71" s="3" t="str">
@@ -4792,7 +4827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15">
       <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4821,14 +4856,14 @@
         <v>241</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="4"/>
-        <v>232.565</v>
+        <f t="shared" si="5"/>
+        <v>235</v>
       </c>
       <c r="K72" s="3">
         <v>232.565</v>
       </c>
       <c r="L72" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18372.634999999998</v>
       </c>
       <c r="M72" s="3" t="str">
@@ -4842,7 +4877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
@@ -4871,14 +4906,14 @@
         <v>232</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="4"/>
-        <v>223.88</v>
+        <f t="shared" si="5"/>
+        <v>226</v>
       </c>
       <c r="K73" s="3">
         <v>223.88</v>
       </c>
       <c r="L73" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13880.56</v>
       </c>
       <c r="M73" s="3" t="str">
@@ -4892,7 +4927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15">
       <c r="A74" s="5"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4908,7 +4943,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15">
       <c r="A75" s="5"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4933,7 +4968,7 @@
   <autoFilter ref="B3:B73"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I4:I73 K4:K73">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>I4&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/106-2教科書/02.採購/招標議價.xlsx
+++ b/106-2教科書/02.採購/招標議價.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\106設備組\03教科書\106-2教科書\02.採購\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19414" windowHeight="7162"/>
   </bookViews>
   <sheets>
     <sheet name="書單(總)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'書單(總)'!$B$3:$B$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'書單(總)'!$A$3:$P$73</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -789,15 +784,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>國立彰化高商106學年度第二學期教科書採購招標議價作業</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立彰化高商106學年度第二學期教科書採購作業-加退訂通知書</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +800,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -999,6 +994,18 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -1017,23 +1024,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1090,7 +1085,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1125,7 +1120,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1341,30 +1336,29 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="7.15625" defaultRowHeight="16.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="7.109375" style="1"/>
+    <col min="1" max="1" width="4.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.9453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.47265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.3671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7890625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="7.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21">
+    <row r="1" spans="1:16" ht="20.350000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1380,8 +1374,8 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="3.4" customHeight="1"/>
-    <row r="3" spans="1:16">
+    <row r="2" spans="1:16" ht="3.4" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1461,11 +1455,11 @@
         <v>213</v>
       </c>
       <c r="K4" s="3">
-        <v>210.37</v>
+        <v>210</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L35" si="0">G4*K4</f>
-        <v>13042.94</v>
+        <v>13020</v>
       </c>
       <c r="M4" s="3" t="str">
         <f>IF(N4-G4=0,"",N4-G4)</f>
@@ -1478,7 +1472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1511,11 +1505,11 @@
         <v>226</v>
       </c>
       <c r="K5" s="3">
-        <v>223.88</v>
+        <v>224</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="0"/>
-        <v>51940.159999999996</v>
+        <v>51968</v>
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" ref="M5:M68" si="2">IF(N5-G5=0,"",N5-G5)</f>
@@ -1528,7 +1522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1561,11 +1555,11 @@
         <v>242</v>
       </c>
       <c r="K6" s="3">
-        <v>239.32</v>
+        <v>239</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="0"/>
-        <v>58872.72</v>
+        <v>58794</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1578,7 +1572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1611,11 +1605,11 @@
         <v>222</v>
       </c>
       <c r="K7" s="3">
-        <v>220.01999999999998</v>
+        <v>220</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="0"/>
-        <v>33883.079999999994</v>
+        <v>33880</v>
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1628,7 +1622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1661,11 +1655,11 @@
         <v>215</v>
       </c>
       <c r="K8" s="3">
-        <v>212.29999999999998</v>
+        <v>212</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="0"/>
-        <v>34817.199999999997</v>
+        <v>34768</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="2"/>
@@ -1678,7 +1672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1711,11 +1705,11 @@
         <v>164</v>
       </c>
       <c r="K9" s="3">
-        <v>162.12</v>
+        <v>162</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="0"/>
-        <v>10051.44</v>
+        <v>10044</v>
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1728,7 +1722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1761,11 +1755,11 @@
         <v>193</v>
       </c>
       <c r="K10" s="3">
-        <v>191.07</v>
+        <v>191</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="0"/>
-        <v>15094.529999999999</v>
+        <v>15089</v>
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1778,7 +1772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1811,11 +1805,11 @@
         <v>205</v>
       </c>
       <c r="K11" s="3">
-        <v>202.65</v>
+        <v>203</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="0"/>
-        <v>12564.300000000001</v>
+        <v>12586</v>
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1828,7 +1822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1860,12 +1854,10 @@
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="K12" s="3">
-        <v>319.41499999999996</v>
-      </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="6">
         <f t="shared" si="0"/>
-        <v>24594.954999999998</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1878,10 +1870,10 @@
         <v>18</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1911,12 +1903,10 @@
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="K13" s="3">
-        <v>193</v>
-      </c>
+      <c r="K13" s="3"/>
       <c r="L13" s="6">
         <f t="shared" si="0"/>
-        <v>30687</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1929,10 +1919,10 @@
         <v>15</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -1963,11 +1953,11 @@
         <v>146</v>
       </c>
       <c r="K14" s="3">
-        <v>144.75</v>
+        <v>145</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="0"/>
-        <v>13896</v>
+        <v>13920</v>
       </c>
       <c r="M14" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1980,7 +1970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -2013,11 +2003,11 @@
         <v>156</v>
       </c>
       <c r="K15" s="3">
-        <v>154.4</v>
+        <v>155</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="0"/>
-        <v>12043.2</v>
+        <v>12090</v>
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2030,7 +2020,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2061,11 +2051,11 @@
         <v>156</v>
       </c>
       <c r="K16" s="3">
-        <v>154.4</v>
+        <v>155</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="0"/>
-        <v>84611.199999999997</v>
+        <v>84940</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="2"/>
@@ -2078,7 +2068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -2109,11 +2099,11 @@
         <v>156</v>
       </c>
       <c r="K17" s="3">
-        <v>154.4</v>
+        <v>155</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="0"/>
-        <v>14822.400000000001</v>
+        <v>14880</v>
       </c>
       <c r="M17" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2126,7 +2116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2158,12 +2148,10 @@
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="K18" s="3">
-        <v>252.82999999999998</v>
-      </c>
+      <c r="K18" s="3"/>
       <c r="L18" s="6">
         <f t="shared" si="0"/>
-        <v>38935.82</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2176,10 +2164,10 @@
         <v>9</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2212,11 +2200,11 @@
         <v>151</v>
       </c>
       <c r="K19" s="3">
-        <v>149.57499999999999</v>
+        <v>150</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="0"/>
-        <v>104552.92499999999</v>
+        <v>104850</v>
       </c>
       <c r="M19" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2229,7 +2217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -2262,11 +2250,11 @@
         <v>151</v>
       </c>
       <c r="K20" s="3">
-        <v>149.57499999999999</v>
+        <v>150</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>11666.849999999999</v>
+        <v>11700</v>
       </c>
       <c r="M20" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2279,7 +2267,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2312,11 +2300,11 @@
         <v>164</v>
       </c>
       <c r="K21" s="3">
-        <v>162.12</v>
+        <v>160</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="0"/>
-        <v>113321.88</v>
+        <v>111840</v>
       </c>
       <c r="M21" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2329,7 +2317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2362,11 +2350,11 @@
         <v>122</v>
       </c>
       <c r="K22" s="3">
-        <v>120.625</v>
+        <v>120</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="0"/>
-        <v>77200</v>
+        <v>76800</v>
       </c>
       <c r="M22" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2379,7 +2367,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -2412,11 +2400,11 @@
         <v>156</v>
       </c>
       <c r="K23" s="3">
-        <v>154.4</v>
+        <v>154</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="0"/>
-        <v>12043.2</v>
+        <v>12012</v>
       </c>
       <c r="M23" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2429,7 +2417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2462,11 +2450,11 @@
         <v>205</v>
       </c>
       <c r="K24" s="3">
-        <v>202.65</v>
+        <v>203</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="0"/>
-        <v>94637.55</v>
+        <v>94801</v>
       </c>
       <c r="M24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2479,7 +2467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -2512,11 +2500,11 @@
         <v>234</v>
       </c>
       <c r="K25" s="3">
-        <v>231.6</v>
+        <v>232</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="0"/>
-        <v>97966.8</v>
+        <v>98136</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="2"/>
@@ -2529,7 +2517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2562,11 +2550,11 @@
         <v>224</v>
       </c>
       <c r="K26" s="3">
-        <v>221.95</v>
+        <v>222</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="0"/>
-        <v>103428.7</v>
+        <v>103452</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
@@ -2579,7 +2567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2612,11 +2600,11 @@
         <v>234</v>
       </c>
       <c r="K27" s="3">
-        <v>231.6</v>
+        <v>232</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="0"/>
-        <v>126222</v>
+        <v>126440</v>
       </c>
       <c r="M27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2629,7 +2617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -2662,11 +2650,11 @@
         <v>234</v>
       </c>
       <c r="K28" s="3">
-        <v>231.6</v>
+        <v>232</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="0"/>
-        <v>18064.8</v>
+        <v>18096</v>
       </c>
       <c r="M28" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2679,7 +2667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -2712,11 +2700,11 @@
         <v>205</v>
       </c>
       <c r="K29" s="3">
-        <v>202.65</v>
+        <v>203</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="0"/>
-        <v>19859.7</v>
+        <v>19894</v>
       </c>
       <c r="M29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2729,7 +2717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -2779,7 +2767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
@@ -2829,7 +2817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2912,11 +2900,11 @@
         <v>244</v>
       </c>
       <c r="K33" s="3">
-        <v>241.25</v>
+        <v>241</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="0"/>
-        <v>93605</v>
+        <v>93508</v>
       </c>
       <c r="M33" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2929,7 +2917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2962,11 +2950,11 @@
         <v>180</v>
       </c>
       <c r="K34" s="3">
-        <v>178.52500000000001</v>
+        <v>178</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="0"/>
-        <v>97831.7</v>
+        <v>97544</v>
       </c>
       <c r="M34" s="3">
         <f t="shared" si="2"/>
@@ -2979,7 +2967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -3011,12 +2999,10 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="K35" s="3">
-        <v>178.52500000000001</v>
-      </c>
+      <c r="K35" s="3"/>
       <c r="L35" s="6">
         <f t="shared" si="0"/>
-        <v>27492.850000000002</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3029,10 +3015,10 @@
         <v>8</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3064,12 +3050,10 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="K36" s="3">
-        <v>222.91499999999999</v>
-      </c>
+      <c r="K36" s="3"/>
       <c r="L36" s="6">
         <f t="shared" ref="L36:L67" si="3">G36*K36</f>
-        <v>36558.06</v>
+        <v>0</v>
       </c>
       <c r="M36" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3082,10 +3066,10 @@
         <v>28</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -3117,12 +3101,10 @@
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="K37" s="3">
-        <v>201.685</v>
-      </c>
+      <c r="K37" s="3"/>
       <c r="L37" s="6">
         <f t="shared" si="3"/>
-        <v>20975.24</v>
+        <v>0</v>
       </c>
       <c r="M37" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3135,10 +3117,10 @@
         <v>30</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -3171,11 +3153,11 @@
         <v>122</v>
       </c>
       <c r="K38" s="3">
-        <v>120.625</v>
+        <v>121</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="3"/>
-        <v>12545</v>
+        <v>12584</v>
       </c>
       <c r="M38" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3188,7 +3170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3221,11 +3203,11 @@
         <v>122</v>
       </c>
       <c r="K39" s="3">
-        <v>120.625</v>
+        <v>121</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="3"/>
-        <v>9529.375</v>
+        <v>9559</v>
       </c>
       <c r="M39" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3238,7 +3220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -3271,11 +3253,11 @@
         <v>137</v>
       </c>
       <c r="K40" s="3">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="3"/>
-        <v>96191.2</v>
+        <v>96120</v>
       </c>
       <c r="M40" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3288,7 +3270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3319,11 +3301,11 @@
         <v>224</v>
       </c>
       <c r="K41" s="3">
-        <v>221.95</v>
+        <v>222</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="3"/>
-        <v>34624.199999999997</v>
+        <v>34632</v>
       </c>
       <c r="M41" s="3">
         <f t="shared" si="2"/>
@@ -3336,7 +3318,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -3369,11 +3351,11 @@
         <v>224</v>
       </c>
       <c r="K42" s="3">
-        <v>221.95</v>
+        <v>222</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="3"/>
-        <v>17312.099999999999</v>
+        <v>17316</v>
       </c>
       <c r="M42" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3386,7 +3368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3419,11 +3401,11 @@
         <v>224</v>
       </c>
       <c r="K43" s="3">
-        <v>221.95</v>
+        <v>222</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="3"/>
-        <v>86560.5</v>
+        <v>86580</v>
       </c>
       <c r="M43" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3436,7 +3418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -3469,11 +3451,11 @@
         <v>224</v>
       </c>
       <c r="K44" s="3">
-        <v>221.95</v>
+        <v>222</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="3"/>
-        <v>21307.199999999997</v>
+        <v>21312</v>
       </c>
       <c r="M44" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3486,7 +3468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3517,11 +3499,11 @@
         <v>327</v>
       </c>
       <c r="K45" s="3">
-        <v>323.27499999999998</v>
+        <v>323</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="3"/>
-        <v>99891.974999999991</v>
+        <v>99807</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" si="2"/>
@@ -3534,7 +3516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3565,11 +3547,11 @@
         <v>141</v>
       </c>
       <c r="K46" s="3">
-        <v>139.92499999999998</v>
+        <v>140</v>
       </c>
       <c r="L46" s="6">
         <f t="shared" si="3"/>
-        <v>89551.999999999985</v>
+        <v>89600</v>
       </c>
       <c r="M46" s="3">
         <f t="shared" si="2"/>
@@ -3582,7 +3564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -3613,11 +3595,11 @@
         <v>141</v>
       </c>
       <c r="K47" s="3">
-        <v>139.92499999999998</v>
+        <v>140</v>
       </c>
       <c r="L47" s="6">
         <f t="shared" si="3"/>
-        <v>15391.749999999998</v>
+        <v>15400</v>
       </c>
       <c r="M47" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3630,7 +3612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3662,12 +3644,10 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="K48" s="3">
-        <v>141</v>
-      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="6">
         <f t="shared" si="3"/>
-        <v>98559</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3680,10 +3660,10 @@
         <v>19</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3716,11 +3696,11 @@
         <v>271</v>
       </c>
       <c r="K49" s="3">
-        <v>268.27</v>
+        <v>268</v>
       </c>
       <c r="L49" s="6">
         <f t="shared" si="3"/>
-        <v>125550.35999999999</v>
+        <v>125424</v>
       </c>
       <c r="M49" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3733,7 +3713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
@@ -3766,11 +3746,11 @@
         <v>271</v>
       </c>
       <c r="K50" s="3">
-        <v>268.27</v>
+        <v>268</v>
       </c>
       <c r="L50" s="6">
         <f t="shared" si="3"/>
-        <v>20925.059999999998</v>
+        <v>20904</v>
       </c>
       <c r="M50" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3783,7 +3763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3816,11 +3796,11 @@
         <v>271</v>
       </c>
       <c r="K51" s="3">
-        <v>268.27</v>
+        <v>268</v>
       </c>
       <c r="L51" s="6">
         <f t="shared" si="3"/>
-        <v>126086.9</v>
+        <v>125960</v>
       </c>
       <c r="M51" s="3">
         <f t="shared" si="2"/>
@@ -3833,7 +3813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
@@ -3866,11 +3846,11 @@
         <v>271</v>
       </c>
       <c r="K52" s="3">
-        <v>268.27</v>
+        <v>268</v>
       </c>
       <c r="L52" s="6">
         <f t="shared" si="3"/>
-        <v>25753.919999999998</v>
+        <v>25728</v>
       </c>
       <c r="M52" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3883,7 +3863,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -3916,11 +3896,11 @@
         <v>273</v>
       </c>
       <c r="K53" s="3">
-        <v>270.2</v>
+        <v>270</v>
       </c>
       <c r="L53" s="6">
         <f t="shared" si="3"/>
-        <v>25939.199999999997</v>
+        <v>25920</v>
       </c>
       <c r="M53" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3933,7 +3913,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3966,11 +3946,11 @@
         <v>201</v>
       </c>
       <c r="K54" s="3">
-        <v>198.79</v>
+        <v>198</v>
       </c>
       <c r="L54" s="6">
         <f t="shared" si="3"/>
-        <v>30613.66</v>
+        <v>30492</v>
       </c>
       <c r="M54" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3983,7 +3963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -4016,11 +3996,11 @@
         <v>210</v>
       </c>
       <c r="K55" s="3">
-        <v>207.47499999999999</v>
+        <v>207</v>
       </c>
       <c r="L55" s="6">
         <f t="shared" si="3"/>
-        <v>31951.149999999998</v>
+        <v>31878</v>
       </c>
       <c r="M55" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4033,7 +4013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -4066,11 +4046,11 @@
         <v>190</v>
       </c>
       <c r="K56" s="3">
-        <v>188.17499999999998</v>
+        <v>188</v>
       </c>
       <c r="L56" s="6">
         <f t="shared" si="3"/>
-        <v>28978.949999999997</v>
+        <v>28952</v>
       </c>
       <c r="M56" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4083,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4116,11 +4096,11 @@
         <v>194</v>
       </c>
       <c r="K57" s="3">
-        <v>192.035</v>
+        <v>192</v>
       </c>
       <c r="L57" s="6">
         <f t="shared" si="3"/>
-        <v>105235.18</v>
+        <v>105216</v>
       </c>
       <c r="M57" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4133,7 +4113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4166,11 +4146,11 @@
         <v>213</v>
       </c>
       <c r="K58" s="3">
-        <v>210.37</v>
+        <v>210</v>
       </c>
       <c r="L58" s="6">
         <f t="shared" si="3"/>
-        <v>16408.86</v>
+        <v>16380</v>
       </c>
       <c r="M58" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4183,7 +4163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4216,11 +4196,11 @@
         <v>222</v>
       </c>
       <c r="K59" s="3">
-        <v>220.01999999999998</v>
+        <v>220</v>
       </c>
       <c r="L59" s="6">
         <f t="shared" si="3"/>
-        <v>36083.279999999999</v>
+        <v>36080</v>
       </c>
       <c r="M59" s="3">
         <f t="shared" si="2"/>
@@ -4233,7 +4213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>47</v>
       </c>
@@ -4266,11 +4246,11 @@
         <v>227</v>
       </c>
       <c r="K60" s="3">
-        <v>224.845</v>
+        <v>210</v>
       </c>
       <c r="L60" s="6">
         <f t="shared" si="3"/>
-        <v>24732.95</v>
+        <v>23100</v>
       </c>
       <c r="M60" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4283,7 +4263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>8</v>
       </c>
@@ -4316,11 +4296,11 @@
         <v>243</v>
       </c>
       <c r="K61" s="3">
-        <v>240.285</v>
+        <v>240</v>
       </c>
       <c r="L61" s="6">
         <f t="shared" si="3"/>
-        <v>14417.1</v>
+        <v>14400</v>
       </c>
       <c r="M61" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4333,7 +4313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>47</v>
       </c>
@@ -4366,11 +4346,11 @@
         <v>213</v>
       </c>
       <c r="K62" s="3">
-        <v>210.37</v>
+        <v>210</v>
       </c>
       <c r="L62" s="6">
         <f t="shared" si="3"/>
-        <v>20195.52</v>
+        <v>20160</v>
       </c>
       <c r="M62" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4383,7 +4363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>47</v>
       </c>
@@ -4416,11 +4396,11 @@
         <v>200</v>
       </c>
       <c r="K63" s="3">
-        <v>197.82499999999999</v>
+        <v>198</v>
       </c>
       <c r="L63" s="6">
         <f t="shared" si="3"/>
-        <v>21760.75</v>
+        <v>21780</v>
       </c>
       <c r="M63" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4433,7 +4413,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>47</v>
       </c>
@@ -4466,11 +4446,11 @@
         <v>200</v>
       </c>
       <c r="K64" s="3">
-        <v>197.82499999999999</v>
+        <v>198</v>
       </c>
       <c r="L64" s="6">
         <f t="shared" si="3"/>
-        <v>18991.199999999997</v>
+        <v>19008</v>
       </c>
       <c r="M64" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4483,7 +4463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>47</v>
       </c>
@@ -4516,11 +4496,11 @@
         <v>182</v>
       </c>
       <c r="K65" s="3">
-        <v>180.45499999999998</v>
+        <v>180</v>
       </c>
       <c r="L65" s="6">
         <f t="shared" si="3"/>
-        <v>14075.489999999998</v>
+        <v>14040</v>
       </c>
       <c r="M65" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4533,7 +4513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>47</v>
       </c>
@@ -4564,11 +4544,11 @@
         <v>278</v>
       </c>
       <c r="K66" s="3">
-        <v>275.02499999999998</v>
+        <v>275</v>
       </c>
       <c r="L66" s="6">
         <f t="shared" si="3"/>
-        <v>3300.2999999999997</v>
+        <v>3300</v>
       </c>
       <c r="M66" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4581,7 +4561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
@@ -4612,11 +4592,11 @@
         <v>258</v>
       </c>
       <c r="K67" s="3">
-        <v>255.72499999999999</v>
+        <v>255</v>
       </c>
       <c r="L67" s="6">
         <f t="shared" si="3"/>
-        <v>39893.1</v>
+        <v>39780</v>
       </c>
       <c r="M67" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4629,7 +4609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>47</v>
       </c>
@@ -4660,11 +4640,11 @@
         <v>248</v>
       </c>
       <c r="K68" s="3">
-        <v>245.10999999999999</v>
+        <v>245</v>
       </c>
       <c r="L68" s="6">
         <f t="shared" ref="L68:L73" si="4">G68*K68</f>
-        <v>6127.75</v>
+        <v>6125</v>
       </c>
       <c r="M68" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4677,7 +4657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>47</v>
       </c>
@@ -4710,11 +4690,11 @@
         <v>182</v>
       </c>
       <c r="K69" s="3">
-        <v>180.45499999999998</v>
+        <v>180</v>
       </c>
       <c r="L69" s="6">
         <f t="shared" si="4"/>
-        <v>17323.68</v>
+        <v>17280</v>
       </c>
       <c r="M69" s="3" t="str">
         <f t="shared" ref="M69:M73" si="6">IF(N69-G69=0,"",N69-G69)</f>
@@ -4727,7 +4707,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>8</v>
       </c>
@@ -4760,11 +4740,11 @@
         <v>176</v>
       </c>
       <c r="K70" s="3">
-        <v>173.7</v>
+        <v>173</v>
       </c>
       <c r="L70" s="6">
         <f t="shared" si="4"/>
-        <v>94666.5</v>
+        <v>94285</v>
       </c>
       <c r="M70" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4777,7 +4757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -4810,11 +4790,11 @@
         <v>247</v>
       </c>
       <c r="K71" s="3">
-        <v>244.14499999999998</v>
+        <v>244</v>
       </c>
       <c r="L71" s="6">
         <f t="shared" si="4"/>
-        <v>25391.079999999998</v>
+        <v>25376</v>
       </c>
       <c r="M71" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4827,7 +4807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4860,11 +4840,11 @@
         <v>235</v>
       </c>
       <c r="K72" s="3">
-        <v>232.565</v>
+        <v>232</v>
       </c>
       <c r="L72" s="6">
         <f t="shared" si="4"/>
-        <v>18372.634999999998</v>
+        <v>18328</v>
       </c>
       <c r="M72" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4877,7 +4857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
@@ -4910,11 +4890,11 @@
         <v>226</v>
       </c>
       <c r="K73" s="3">
-        <v>223.88</v>
+        <v>224</v>
       </c>
       <c r="L73" s="6">
         <f t="shared" si="4"/>
-        <v>13880.56</v>
+        <v>13888</v>
       </c>
       <c r="M73" s="3" t="str">
         <f t="shared" si="6"/>
@@ -4927,7 +4907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4943,7 +4923,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4959,16 +4939,15 @@
       </c>
       <c r="L75" s="8">
         <f>SUBTOTAL(9,L4:L73)</f>
-        <v>3174051.6350000007</v>
+        <v>2892394</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:B73"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I4:I73 K4:K73">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>I4&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/106-2教科書/02.採購/招標議價.xlsx
+++ b/106-2教科書/02.採購/招標議價.xlsx
@@ -31,10 +31,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>學生價</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>作者</t>
   </si>
   <si>
@@ -794,6 +790,10 @@
   <si>
     <t>國立彰化高商106學年度第二學期教科書採購作業-加退訂通知書</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單價</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1336,7 +1336,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.15625" defaultRowHeight="16.25" x14ac:dyDescent="0.45"/>
@@ -1358,7 +1358,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.350000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1386,1608 +1386,1616 @@
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="G4" s="3">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="H4" s="3">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="I4" s="3">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="J4" s="3">
         <f>ROUND(I4*0.975,0)</f>
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="K4" s="3">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L35" si="0">G4*K4</f>
-        <v>13020</v>
+        <f>G4*K4</f>
+        <v>28952</v>
       </c>
       <c r="M4" s="3" t="str">
         <f>IF(N4-G4=0,"",N4-G4)</f>
         <v/>
       </c>
       <c r="N4" s="11">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="O4" s="1">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="H5" s="3">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I5" s="3">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J68" si="1">ROUND(I5*0.975,0)</f>
-        <v>226</v>
+        <f>ROUND(I5*0.975,0)</f>
+        <v>222</v>
       </c>
       <c r="K5" s="3">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="0"/>
-        <v>51968</v>
+        <f>G5*K5</f>
+        <v>33880</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f t="shared" ref="M5:M68" si="2">IF(N5-G5=0,"",N5-G5)</f>
+        <f>IF(N5-G5=0,"",N5-G5)</f>
         <v/>
       </c>
       <c r="N5" s="11">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="O5" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="G6" s="3">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="H6" s="3">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="I6" s="3">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>242</v>
+        <f>ROUND(I6*0.975,0)</f>
+        <v>210</v>
       </c>
       <c r="K6" s="3">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="0"/>
-        <v>58794</v>
+        <f>G6*K6</f>
+        <v>31878</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N6-G6=0,"",N6-G6)</f>
         <v/>
       </c>
       <c r="N6" s="11">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="O6" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="G7" s="3">
         <v>154</v>
       </c>
       <c r="H7" s="3">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="I7" s="3">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="1"/>
-        <v>222</v>
+        <f>ROUND(I7*0.975,0)</f>
+        <v>201</v>
       </c>
       <c r="K7" s="3">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="0"/>
-        <v>33880</v>
+        <f>G7*K7</f>
+        <v>30492</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N7-G7=0,"",N7-G7)</f>
         <v/>
       </c>
       <c r="N7" s="11">
         <v>154</v>
       </c>
       <c r="O7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G8" s="3">
-        <v>164</v>
+        <v>545</v>
       </c>
       <c r="H8" s="3">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="I8" s="3">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>215</v>
+        <f>ROUND(I8*0.975,0)</f>
+        <v>234</v>
       </c>
       <c r="K8" s="3">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="0"/>
-        <v>34768</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f>G8*K8</f>
+        <v>126440</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f>IF(N8-G8=0,"",N8-G8)</f>
+        <v/>
       </c>
       <c r="N8" s="11">
-        <v>163</v>
+        <v>545</v>
       </c>
       <c r="O8" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="H9" s="3">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="I9" s="3">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>164</v>
+        <f>ROUND(I9*0.975,0)</f>
+        <v>226</v>
       </c>
       <c r="K9" s="3">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="0"/>
-        <v>10044</v>
+        <f>G9*K9</f>
+        <v>51968</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N9-G9=0,"",N9-G9)</f>
         <v/>
       </c>
       <c r="N9" s="11">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="O9" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="H10" s="3">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I10" s="3">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>193</v>
+        <f>ROUND(I10*0.975,0)</f>
+        <v>205</v>
       </c>
       <c r="K10" s="3">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="0"/>
-        <v>15089</v>
+        <f>G10*K10</f>
+        <v>94801</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N10-G10=0,"",N10-G10)</f>
         <v/>
       </c>
       <c r="N10" s="11">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="O10" s="1">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="3">
+        <v>154</v>
+      </c>
+      <c r="H11" s="3">
+        <v>185</v>
+      </c>
+      <c r="I11" s="3">
+        <v>185</v>
+      </c>
+      <c r="J11" s="3">
+        <f>ROUND(I11*0.975,0)</f>
+        <v>180</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="6">
+        <f>G11*K11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f>IF(N11-G11=0,"",N11-G11)</f>
+        <v/>
+      </c>
+      <c r="N11" s="11">
+        <v>154</v>
+      </c>
+      <c r="O11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="3">
-        <v>62</v>
-      </c>
-      <c r="H11" s="3">
-        <v>210</v>
-      </c>
-      <c r="I11" s="3">
-        <v>210</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-      <c r="K11" s="3">
-        <v>203</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="0"/>
-        <v>12586</v>
-      </c>
-      <c r="M11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N11" s="11">
-        <v>62</v>
-      </c>
-      <c r="O11" s="1">
-        <v>39</v>
+      <c r="P11" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G12" s="3">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="H12" s="3">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="I12" s="3">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>323</v>
+        <f>ROUND(I12*0.975,0)</f>
+        <v>255</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="6">
-        <f t="shared" si="0"/>
+        <f>G12*K12</f>
         <v>0</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N12-G12=0,"",N12-G12)</f>
         <v/>
       </c>
       <c r="N12" s="11">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="O12" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="G13" s="3">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="H13" s="3">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="I13" s="3">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="K13" s="3"/>
+        <f>ROUND(I13*0.975,0)</f>
+        <v>213</v>
+      </c>
+      <c r="K13" s="3">
+        <v>210</v>
+      </c>
       <c r="L13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G13*K13</f>
+        <v>16380</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N13-G13=0,"",N13-G13)</f>
         <v/>
       </c>
       <c r="N13" s="11">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="O13" s="1">
-        <v>15</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="G14" s="3">
-        <v>96</v>
+        <v>545</v>
       </c>
       <c r="H14" s="3">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="I14" s="3">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>146</v>
+        <f>ROUND(I14*0.975,0)</f>
+        <v>176</v>
       </c>
       <c r="K14" s="3">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="0"/>
-        <v>13920</v>
+        <f>G14*K14</f>
+        <v>94285</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N14-G14=0,"",N14-G14)</f>
         <v/>
       </c>
       <c r="N14" s="11">
-        <v>96</v>
+        <v>545</v>
       </c>
       <c r="O14" s="1">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="G15" s="3">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="H15" s="3">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>156</v>
+        <f>ROUND(I15*0.975,0)</f>
+        <v>195</v>
       </c>
       <c r="K15" s="3">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="0"/>
-        <v>12090</v>
+        <f>G15*K15</f>
+        <v>75270</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N15-G15=0,"",N15-G15)</f>
         <v/>
       </c>
       <c r="N15" s="11">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="O15" s="1">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="G16" s="3">
-        <v>548</v>
+        <v>390</v>
       </c>
       <c r="H16" s="3">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="I16" s="3">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>156</v>
+        <f>ROUND(I16*0.975,0)</f>
+        <v>224</v>
       </c>
       <c r="K16" s="3">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="0"/>
-        <v>84940</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="2"/>
-        <v>-3</v>
+        <f>G16*K16</f>
+        <v>86580</v>
+      </c>
+      <c r="M16" s="3" t="str">
+        <f>IF(N16-G16=0,"",N16-G16)</f>
+        <v/>
       </c>
       <c r="N16" s="11">
-        <v>545</v>
+        <v>390</v>
       </c>
       <c r="O16" s="1">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="G17" s="3">
-        <v>96</v>
+        <v>468</v>
       </c>
       <c r="H17" s="3">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>156</v>
+        <f>ROUND(I17*0.975,0)</f>
+        <v>195</v>
       </c>
       <c r="K17" s="3">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="0"/>
-        <v>14880</v>
+        <f>G17*K17</f>
+        <v>90324</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N17-G17=0,"",N17-G17)</f>
         <v/>
       </c>
       <c r="N17" s="11">
-        <v>96</v>
+        <v>468</v>
       </c>
       <c r="O17" s="1">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H18" s="3">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>255</v>
+        <f>ROUND(I18*0.975,0)</f>
+        <v>195</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="6">
-        <f t="shared" si="0"/>
+        <f>G18*K18</f>
         <v>0</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N18-G18=0,"",N18-G18)</f>
         <v/>
       </c>
       <c r="N18" s="11">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O18" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3">
-        <v>699</v>
+        <v>156</v>
       </c>
       <c r="H19" s="3">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="I19" s="3">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="1"/>
-        <v>151</v>
+        <f>ROUND(I19*0.975,0)</f>
+        <v>258</v>
       </c>
       <c r="K19" s="3">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="0"/>
-        <v>104850</v>
+        <f>G19*K19</f>
+        <v>39780</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N19-G19=0,"",N19-G19)</f>
         <v/>
       </c>
       <c r="N19" s="11">
-        <v>699</v>
+        <v>156</v>
       </c>
       <c r="O19" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="H20" s="3">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="I20" s="3">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>151</v>
+        <f>ROUND(I20*0.975,0)</f>
+        <v>271</v>
       </c>
       <c r="K20" s="3">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="0"/>
-        <v>11700</v>
+        <f>G20*K20</f>
+        <v>125424</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N20-G20=0,"",N20-G20)</f>
         <v/>
       </c>
       <c r="N20" s="11">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="O20" s="1">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G21" s="3">
-        <v>699</v>
+        <v>77</v>
       </c>
       <c r="H21" s="3">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="I21" s="3">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-      <c r="K21" s="3">
-        <v>160</v>
-      </c>
+        <f>ROUND(I21*0.975,0)</f>
+        <v>323</v>
+      </c>
+      <c r="K21" s="3"/>
       <c r="L21" s="6">
-        <f t="shared" si="0"/>
-        <v>111840</v>
+        <f>G21*K21</f>
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N21-G21=0,"",N21-G21)</f>
         <v/>
       </c>
       <c r="N21" s="11">
-        <v>699</v>
+        <v>77</v>
       </c>
       <c r="O21" s="1">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="G22" s="3">
-        <v>640</v>
+        <v>699</v>
       </c>
       <c r="H22" s="3">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="I22" s="3">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="K22" s="3">
-        <v>120</v>
-      </c>
+        <f>ROUND(I22*0.975,0)</f>
+        <v>142</v>
+      </c>
+      <c r="K22" s="3"/>
       <c r="L22" s="6">
-        <f t="shared" si="0"/>
-        <v>76800</v>
+        <f>G22*K22</f>
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N22-G22=0,"",N22-G22)</f>
         <v/>
       </c>
       <c r="N22" s="11">
-        <v>640</v>
+        <v>699</v>
       </c>
       <c r="O22" s="1">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G23" s="3">
-        <v>78</v>
+        <v>699</v>
       </c>
       <c r="H23" s="3">
+        <v>168</v>
+      </c>
+      <c r="I23" s="3">
+        <v>168</v>
+      </c>
+      <c r="J23" s="3">
+        <f>ROUND(I23*0.975,0)</f>
+        <v>164</v>
+      </c>
+      <c r="K23" s="3">
         <v>160</v>
       </c>
-      <c r="I23" s="3">
-        <v>160</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="K23" s="3">
-        <v>154</v>
-      </c>
       <c r="L23" s="6">
-        <f t="shared" si="0"/>
-        <v>12012</v>
+        <f>G23*K23</f>
+        <v>111840</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N23-G23=0,"",N23-G23)</f>
         <v/>
       </c>
       <c r="N23" s="11">
-        <v>78</v>
+        <v>699</v>
       </c>
       <c r="O23" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G24" s="3">
-        <v>467</v>
+        <v>699</v>
       </c>
       <c r="H24" s="3">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="I24" s="3">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>205</v>
+        <f>ROUND(I24*0.975,0)</f>
+        <v>151</v>
       </c>
       <c r="K24" s="3">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="0"/>
-        <v>94801</v>
+        <f>G24*K24</f>
+        <v>104850</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N24-G24=0,"",N24-G24)</f>
         <v/>
       </c>
       <c r="N24" s="11">
-        <v>467</v>
+        <v>699</v>
       </c>
       <c r="O24" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="G25" s="3">
-        <v>423</v>
+        <v>164</v>
       </c>
       <c r="H25" s="3">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="I25" s="3">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="1"/>
-        <v>234</v>
+        <f>ROUND(I25*0.975,0)</f>
+        <v>215</v>
       </c>
       <c r="K25" s="3">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="0"/>
-        <v>98136</v>
+        <f>G25*K25</f>
+        <v>34768</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(N25-G25=0,"",N25-G25)</f>
         <v>-1</v>
       </c>
       <c r="N25" s="11">
-        <v>422</v>
+        <v>163</v>
       </c>
       <c r="O25" s="1">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="G26" s="3">
-        <v>466</v>
+        <v>60</v>
       </c>
       <c r="H26" s="3">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="I26" s="3">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="1"/>
-        <v>224</v>
+        <f>ROUND(I26*0.975,0)</f>
+        <v>243</v>
       </c>
       <c r="K26" s="3">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="0"/>
-        <v>103452</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" si="2"/>
-        <v>-2</v>
+        <f>G26*K26</f>
+        <v>14400</v>
+      </c>
+      <c r="M26" s="3" t="str">
+        <f>IF(N26-G26=0,"",N26-G26)</f>
+        <v/>
       </c>
       <c r="N26" s="11">
-        <v>464</v>
+        <v>60</v>
       </c>
       <c r="O26" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="G27" s="3">
-        <v>545</v>
+        <v>164</v>
       </c>
       <c r="H27" s="3">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="I27" s="3">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="1"/>
-        <v>234</v>
+        <f>ROUND(I27*0.975,0)</f>
+        <v>222</v>
       </c>
       <c r="K27" s="3">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="0"/>
-        <v>126440</v>
-      </c>
-      <c r="M27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>G27*K27</f>
+        <v>36080</v>
+      </c>
+      <c r="M27" s="3">
+        <f>IF(N27-G27=0,"",N27-G27)</f>
+        <v>-1</v>
       </c>
       <c r="N27" s="11">
-        <v>545</v>
+        <v>163</v>
       </c>
       <c r="O27" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="G28" s="3">
-        <v>78</v>
+        <v>548</v>
       </c>
       <c r="H28" s="3">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="I28" s="3">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="1"/>
-        <v>234</v>
+        <f>ROUND(I28*0.975,0)</f>
+        <v>194</v>
       </c>
       <c r="K28" s="3">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="0"/>
-        <v>18096</v>
+        <f>G28*K28</f>
+        <v>105216</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N28-G28=0,"",N28-G28)</f>
         <v/>
       </c>
       <c r="N28" s="11">
-        <v>78</v>
+        <v>548</v>
       </c>
       <c r="O28" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="G29" s="3">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="H29" s="3">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="I29" s="3">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="1"/>
-        <v>205</v>
+        <f>ROUND(I29*0.975,0)</f>
+        <v>242</v>
       </c>
       <c r="K29" s="3">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="0"/>
-        <v>19894</v>
+        <f>G29*K29</f>
+        <v>58794</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N29-G29=0,"",N29-G29)</f>
         <v/>
       </c>
       <c r="N29" s="11">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="O29" s="1">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G30" s="3">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H30" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="I30" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="1"/>
-        <v>195</v>
+        <f>ROUND(I30*0.975,0)</f>
+        <v>224</v>
       </c>
       <c r="K30" s="3">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="0"/>
-        <v>90324</v>
-      </c>
-      <c r="M30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>G30*K30</f>
+        <v>103452</v>
+      </c>
+      <c r="M30" s="3">
+        <f>IF(N30-G30=0,"",N30-G30)</f>
+        <v>-2</v>
       </c>
       <c r="N30" s="11">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O30" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G31" s="3">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="H31" s="3">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="I31" s="3">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="K31" s="3">
-        <v>193</v>
-      </c>
+        <f>ROUND(I31*0.975,0)</f>
+        <v>225</v>
+      </c>
+      <c r="K31" s="3"/>
       <c r="L31" s="6">
-        <f t="shared" si="0"/>
-        <v>15054</v>
+        <f>G31*K31</f>
+        <v>0</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N31-G31=0,"",N31-G31)</f>
         <v/>
       </c>
       <c r="N31" s="11">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="O31" s="1">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="3">
         <v>104</v>
       </c>
-      <c r="G32" s="3">
-        <v>390</v>
-      </c>
       <c r="H32" s="3">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="1"/>
-        <v>195</v>
+        <f>ROUND(I32*0.975,0)</f>
+        <v>122</v>
       </c>
       <c r="K32" s="3">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="0"/>
-        <v>75270</v>
+        <f>G32*K32</f>
+        <v>12584</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N32-G32=0,"",N32-G32)</f>
         <v/>
       </c>
       <c r="N32" s="11">
-        <v>390</v>
+        <v>104</v>
       </c>
       <c r="O32" s="1">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G33" s="3">
-        <v>388</v>
+        <v>104</v>
       </c>
       <c r="H33" s="3">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="I33" s="3">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="1"/>
-        <v>244</v>
-      </c>
-      <c r="K33" s="3">
-        <v>241</v>
-      </c>
+        <f>ROUND(I33*0.975,0)</f>
+        <v>204</v>
+      </c>
+      <c r="K33" s="3"/>
       <c r="L33" s="6">
-        <f t="shared" si="0"/>
-        <v>93508</v>
+        <f>G33*K33</f>
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N33-G33=0,"",N33-G33)</f>
         <v/>
       </c>
       <c r="N33" s="11">
-        <v>388</v>
+        <v>104</v>
       </c>
       <c r="O33" s="1">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="G34" s="3">
-        <v>548</v>
+        <v>104</v>
       </c>
       <c r="H34" s="3">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="I34" s="3">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f>ROUND(I34*0.975,0)</f>
+        <v>247</v>
       </c>
       <c r="K34" s="3">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="0"/>
-        <v>97544</v>
-      </c>
-      <c r="M34" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f>G34*K34</f>
+        <v>25376</v>
+      </c>
+      <c r="M34" s="3" t="str">
+        <f>IF(N34-G34=0,"",N34-G34)</f>
+        <v/>
       </c>
       <c r="N34" s="11">
-        <v>547</v>
+        <v>104</v>
       </c>
       <c r="O34" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G35" s="3">
-        <v>154</v>
+        <v>548</v>
       </c>
       <c r="H35" s="3">
         <v>185</v>
@@ -2996,248 +3004,241 @@
         <v>185</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="1"/>
+        <f>ROUND(I35*0.975,0)</f>
         <v>180</v>
       </c>
-      <c r="K35" s="3"/>
+      <c r="K35" s="3">
+        <v>178</v>
+      </c>
       <c r="L35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>G35*K35</f>
+        <v>97544</v>
+      </c>
+      <c r="M35" s="3">
+        <f>IF(N35-G35=0,"",N35-G35)</f>
+        <v>-1</v>
       </c>
       <c r="N35" s="11">
-        <v>154</v>
+        <v>547</v>
       </c>
       <c r="O35" s="1">
-        <v>8</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="3">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H36" s="3">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I36" s="3">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="K36" s="3"/>
+        <f>ROUND(I36*0.975,0)</f>
+        <v>224</v>
+      </c>
+      <c r="K36" s="3">
+        <v>222</v>
+      </c>
       <c r="L36" s="6">
-        <f t="shared" ref="L36:L67" si="3">G36*K36</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>G36*K36</f>
+        <v>34632</v>
+      </c>
+      <c r="M36" s="3">
+        <f>IF(N36-G36=0,"",N36-G36)</f>
+        <v>-1</v>
       </c>
       <c r="N36" s="11">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="O36" s="1">
-        <v>28</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="3">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="H37" s="3">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="I37" s="3">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="K37" s="3"/>
+        <f>ROUND(I37*0.975,0)</f>
+        <v>327</v>
+      </c>
+      <c r="K37" s="3">
+        <v>323</v>
+      </c>
       <c r="L37" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>G37*K37</f>
+        <v>99807</v>
+      </c>
+      <c r="M37" s="3">
+        <f>IF(N37-G37=0,"",N37-G37)</f>
+        <v>-3</v>
       </c>
       <c r="N37" s="11">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="O37" s="1">
-        <v>30</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G38" s="3">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="H38" s="3">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="I38" s="3">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <f>ROUND(I38*0.975,0)</f>
+        <v>244</v>
       </c>
       <c r="K38" s="3">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="3"/>
-        <v>12584</v>
+        <f>G38*K38</f>
+        <v>93508</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N38-G38=0,"",N38-G38)</f>
         <v/>
       </c>
       <c r="N38" s="11">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="O38" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="G39" s="3">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="H39" s="3">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="I39" s="3">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <f>ROUND(I39*0.975,0)</f>
+        <v>271</v>
       </c>
       <c r="K39" s="3">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="3"/>
-        <v>9559</v>
-      </c>
-      <c r="M39" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>G39*K39</f>
+        <v>125960</v>
+      </c>
+      <c r="M39" s="3">
+        <f>IF(N39-G39=0,"",N39-G39)</f>
+        <v>-1</v>
       </c>
       <c r="N39" s="11">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="O39" s="1">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="G40" s="3">
         <v>712</v>
@@ -3249,18 +3250,18 @@
         <v>140</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="1"/>
+        <f>ROUND(I40*0.975,0)</f>
         <v>137</v>
       </c>
       <c r="K40" s="3">
         <v>135</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="3"/>
+        <f>G40*K40</f>
         <v>96120</v>
       </c>
       <c r="M40" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N40-G40=0,"",N40-G40)</f>
         <v/>
       </c>
       <c r="N40" s="11">
@@ -3272,1639 +3273,1638 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
+        <v>548</v>
+      </c>
+      <c r="H41" s="3">
+        <v>160</v>
+      </c>
+      <c r="I41" s="3">
+        <v>160</v>
+      </c>
+      <c r="J41" s="3">
+        <f>ROUND(I41*0.975,0)</f>
         <v>156</v>
       </c>
-      <c r="H41" s="3">
-        <v>230</v>
-      </c>
-      <c r="I41" s="3">
-        <v>230</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
       <c r="K41" s="3">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="3"/>
-        <v>34632</v>
+        <f>G41*K41</f>
+        <v>84940</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f>IF(N41-G41=0,"",N41-G41)</f>
+        <v>-3</v>
       </c>
       <c r="N41" s="11">
-        <v>155</v>
+        <v>545</v>
       </c>
       <c r="O41" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="G42" s="3">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H42" s="3">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="I42" s="3">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="1"/>
-        <v>224</v>
+        <f>ROUND(I42*0.975,0)</f>
+        <v>205</v>
       </c>
       <c r="K42" s="3">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="3"/>
-        <v>17316</v>
+        <f>G42*K42</f>
+        <v>12586</v>
       </c>
       <c r="M42" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N42-G42=0,"",N42-G42)</f>
         <v/>
       </c>
       <c r="N42" s="11">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="O42" s="1">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="G43" s="3">
-        <v>390</v>
+        <v>62</v>
       </c>
       <c r="H43" s="3">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I43" s="3">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="1"/>
+        <f>ROUND(I43*0.975,0)</f>
+        <v>226</v>
+      </c>
+      <c r="K43" s="3">
         <v>224</v>
       </c>
-      <c r="K43" s="3">
-        <v>222</v>
-      </c>
       <c r="L43" s="6">
-        <f t="shared" si="3"/>
-        <v>86580</v>
+        <f>G43*K43</f>
+        <v>13888</v>
       </c>
       <c r="M43" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N43-G43=0,"",N43-G43)</f>
         <v/>
       </c>
       <c r="N43" s="11">
-        <v>390</v>
+        <v>62</v>
       </c>
       <c r="O43" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G44" s="3">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H44" s="3">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="I44" s="3">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="1"/>
-        <v>224</v>
+        <f>ROUND(I44*0.975,0)</f>
+        <v>213</v>
       </c>
       <c r="K44" s="3">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="3"/>
-        <v>21312</v>
+        <f>G44*K44</f>
+        <v>13020</v>
       </c>
       <c r="M44" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N44-G44=0,"",N44-G44)</f>
         <v/>
       </c>
       <c r="N44" s="11">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="O44" s="1">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G45" s="3">
-        <v>309</v>
+        <v>423</v>
       </c>
       <c r="H45" s="3">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="I45" s="3">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="1"/>
-        <v>327</v>
+        <f>ROUND(I45*0.975,0)</f>
+        <v>234</v>
       </c>
       <c r="K45" s="3">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="3"/>
-        <v>99807</v>
+        <f>G45*K45</f>
+        <v>98136</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="2"/>
-        <v>-3</v>
+        <f>IF(N45-G45=0,"",N45-G45)</f>
+        <v>-1</v>
       </c>
       <c r="N45" s="11">
-        <v>306</v>
+        <v>422</v>
       </c>
       <c r="O45" s="1">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G46" s="3">
-        <v>640</v>
+        <v>79</v>
       </c>
       <c r="H46" s="3">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="I46" s="3">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="1"/>
-        <v>141</v>
+        <f>ROUND(I46*0.975,0)</f>
+        <v>193</v>
       </c>
       <c r="K46" s="3">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="3"/>
-        <v>89600</v>
-      </c>
-      <c r="M46" s="3">
-        <f t="shared" si="2"/>
-        <v>-13</v>
+        <f>G46*K46</f>
+        <v>15089</v>
+      </c>
+      <c r="M46" s="3" t="str">
+        <f>IF(N46-G46=0,"",N46-G46)</f>
+        <v/>
       </c>
       <c r="N46" s="11">
-        <v>627</v>
+        <v>79</v>
       </c>
       <c r="O46" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G47" s="3">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="H47" s="3">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="I47" s="3">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="1"/>
-        <v>141</v>
+        <f>ROUND(I47*0.975,0)</f>
+        <v>164</v>
       </c>
       <c r="K47" s="3">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="3"/>
-        <v>15400</v>
+        <f>G47*K47</f>
+        <v>10044</v>
       </c>
       <c r="M47" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N47-G47=0,"",N47-G47)</f>
         <v/>
       </c>
       <c r="N47" s="11">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="O47" s="1">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="G48" s="3">
-        <v>699</v>
+        <v>79</v>
       </c>
       <c r="H48" s="3">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="I48" s="3">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="K48" s="3"/>
+        <f>ROUND(I48*0.975,0)</f>
+        <v>235</v>
+      </c>
+      <c r="K48" s="3">
+        <v>232</v>
+      </c>
       <c r="L48" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>G48*K48</f>
+        <v>18328</v>
       </c>
       <c r="M48" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N48-G48=0,"",N48-G48)</f>
         <v/>
       </c>
       <c r="N48" s="11">
-        <v>699</v>
+        <v>79</v>
       </c>
       <c r="O48" s="1">
-        <v>19</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="G49" s="3">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="H49" s="3">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="I49" s="3">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="1"/>
-        <v>271</v>
+        <f>ROUND(I49*0.975,0)</f>
+        <v>122</v>
       </c>
       <c r="K49" s="3">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="L49" s="6">
-        <f t="shared" si="3"/>
-        <v>125424</v>
+        <f>G49*K49</f>
+        <v>9559</v>
       </c>
       <c r="M49" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N49-G49=0,"",N49-G49)</f>
         <v/>
       </c>
       <c r="N49" s="11">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="O49" s="1">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="3">
+        <v>640</v>
+      </c>
+      <c r="H50" s="3">
+        <v>125</v>
+      </c>
+      <c r="I50" s="3">
+        <v>125</v>
+      </c>
+      <c r="J50" s="3">
+        <f>ROUND(I50*0.975,0)</f>
+        <v>122</v>
+      </c>
+      <c r="K50" s="3">
+        <v>120</v>
+      </c>
+      <c r="L50" s="6">
+        <f>G50*K50</f>
+        <v>76800</v>
+      </c>
+      <c r="M50" s="3" t="str">
+        <f>IF(N50-G50=0,"",N50-G50)</f>
+        <v/>
+      </c>
+      <c r="N50" s="11">
+        <v>640</v>
+      </c>
+      <c r="O50" s="1">
         <v>47</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" s="3">
-        <v>78</v>
-      </c>
-      <c r="H50" s="3">
-        <v>278</v>
-      </c>
-      <c r="I50" s="3">
-        <v>278</v>
-      </c>
-      <c r="J50" s="3">
-        <f t="shared" si="1"/>
-        <v>271</v>
-      </c>
-      <c r="K50" s="3">
-        <v>268</v>
-      </c>
-      <c r="L50" s="6">
-        <f t="shared" si="3"/>
-        <v>20904</v>
-      </c>
-      <c r="M50" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N50" s="11">
-        <v>78</v>
-      </c>
-      <c r="O50" s="1">
-        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>169</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3">
-        <v>470</v>
+        <v>640</v>
       </c>
       <c r="H51" s="3">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="I51" s="3">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="1"/>
-        <v>271</v>
+        <f>ROUND(I51*0.975,0)</f>
+        <v>141</v>
       </c>
       <c r="K51" s="3">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="3"/>
-        <v>125960</v>
+        <f>G51*K51</f>
+        <v>89600</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f>IF(N51-G51=0,"",N51-G51)</f>
+        <v>-13</v>
       </c>
       <c r="N51" s="11">
-        <v>469</v>
+        <v>627</v>
       </c>
       <c r="O51" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="G52" s="3">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H52" s="3">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="I52" s="3">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="1"/>
-        <v>271</v>
+        <f>ROUND(I52*0.975,0)</f>
+        <v>234</v>
       </c>
       <c r="K52" s="3">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="L52" s="6">
-        <f t="shared" si="3"/>
-        <v>25728</v>
+        <f>G52*K52</f>
+        <v>18096</v>
       </c>
       <c r="M52" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N52-G52=0,"",N52-G52)</f>
         <v/>
       </c>
       <c r="N52" s="11">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="O52" s="1">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="G53" s="3">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H53" s="3">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="I53" s="3">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="1"/>
-        <v>273</v>
+        <f>ROUND(I53*0.975,0)</f>
+        <v>156</v>
       </c>
       <c r="K53" s="3">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="3"/>
-        <v>25920</v>
+        <f>G53*K53</f>
+        <v>12012</v>
       </c>
       <c r="M53" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N53-G53=0,"",N53-G53)</f>
         <v/>
       </c>
       <c r="N53" s="11">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="O53" s="1">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="G54" s="3">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="H54" s="3">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="I54" s="3">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="1"/>
-        <v>201</v>
+        <f>ROUND(I54*0.975,0)</f>
+        <v>182</v>
       </c>
       <c r="K54" s="3">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="L54" s="6">
-        <f t="shared" si="3"/>
-        <v>30492</v>
+        <f>G54*K54</f>
+        <v>14040</v>
       </c>
       <c r="M54" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N54-G54=0,"",N54-G54)</f>
         <v/>
       </c>
       <c r="N54" s="11">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="O54" s="1">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="G55" s="3">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="H55" s="3">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="I55" s="3">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="1"/>
-        <v>210</v>
+        <f>ROUND(I55*0.975,0)</f>
+        <v>224</v>
       </c>
       <c r="K55" s="3">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" si="3"/>
-        <v>31878</v>
+        <f>G55*K55</f>
+        <v>17316</v>
       </c>
       <c r="M55" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N55-G55=0,"",N55-G55)</f>
         <v/>
       </c>
       <c r="N55" s="11">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="O55" s="1">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="G56" s="3">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="H56" s="3">
+        <v>200</v>
+      </c>
+      <c r="I56" s="3">
+        <v>200</v>
+      </c>
+      <c r="J56" s="3">
+        <f>ROUND(I56*0.975,0)</f>
         <v>195</v>
       </c>
-      <c r="I56" s="3">
-        <v>195</v>
-      </c>
-      <c r="J56" s="3">
-        <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
       <c r="K56" s="3">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L56" s="6">
-        <f t="shared" si="3"/>
-        <v>28952</v>
+        <f>G56*K56</f>
+        <v>15054</v>
       </c>
       <c r="M56" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N56-G56=0,"",N56-G56)</f>
         <v/>
       </c>
       <c r="N56" s="11">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="O56" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G57" s="3">
-        <v>548</v>
+        <v>78</v>
       </c>
       <c r="H57" s="3">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="I57" s="3">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="1"/>
-        <v>194</v>
+        <f>ROUND(I57*0.975,0)</f>
+        <v>271</v>
       </c>
       <c r="K57" s="3">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="L57" s="6">
-        <f t="shared" si="3"/>
-        <v>105216</v>
+        <f>G57*K57</f>
+        <v>20904</v>
       </c>
       <c r="M57" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N57-G57=0,"",N57-G57)</f>
         <v/>
       </c>
       <c r="N57" s="11">
-        <v>548</v>
+        <v>78</v>
       </c>
       <c r="O57" s="1">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="G58" s="3">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H58" s="3">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I58" s="3">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="1"/>
-        <v>213</v>
+        <f>ROUND(I58*0.975,0)</f>
+        <v>205</v>
       </c>
       <c r="K58" s="3">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L58" s="6">
-        <f t="shared" si="3"/>
-        <v>16380</v>
+        <f>G58*K58</f>
+        <v>19894</v>
       </c>
       <c r="M58" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N58-G58=0,"",N58-G58)</f>
         <v/>
       </c>
       <c r="N58" s="11">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="O58" s="1">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="G59" s="3">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="H59" s="3">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="I59" s="3">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="1"/>
-        <v>222</v>
+        <f>ROUND(I59*0.975,0)</f>
+        <v>156</v>
       </c>
       <c r="K59" s="3">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="L59" s="6">
-        <f t="shared" si="3"/>
-        <v>36080</v>
-      </c>
-      <c r="M59" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f>G59*K59</f>
+        <v>12090</v>
+      </c>
+      <c r="M59" s="3" t="str">
+        <f>IF(N59-G59=0,"",N59-G59)</f>
+        <v/>
       </c>
       <c r="N59" s="11">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="O59" s="1">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="G60" s="3">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="H60" s="3">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="I60" s="3">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="1"/>
-        <v>227</v>
+        <f>ROUND(I60*0.975,0)</f>
+        <v>151</v>
       </c>
       <c r="K60" s="3">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L60" s="6">
-        <f t="shared" si="3"/>
-        <v>23100</v>
+        <f>G60*K60</f>
+        <v>11700</v>
       </c>
       <c r="M60" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N60-G60=0,"",N60-G60)</f>
         <v/>
       </c>
       <c r="N60" s="11">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="O60" s="1">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>205</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="H61" s="3">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="I61" s="3">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="1"/>
-        <v>243</v>
+        <f>ROUND(I61*0.975,0)</f>
+        <v>278</v>
       </c>
       <c r="K61" s="3">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="L61" s="6">
-        <f t="shared" si="3"/>
-        <v>14400</v>
+        <f>G61*K61</f>
+        <v>3300</v>
       </c>
       <c r="M61" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N61-G61=0,"",N61-G61)</f>
         <v/>
       </c>
       <c r="N61" s="11">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="O61" s="1">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G62" s="3">
         <v>96</v>
       </c>
       <c r="H62" s="3">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I62" s="3">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="1"/>
-        <v>213</v>
+        <f>ROUND(I62*0.975,0)</f>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="L62" s="6">
-        <f t="shared" si="3"/>
-        <v>20160</v>
+        <f>G62*K62</f>
+        <v>19008</v>
       </c>
       <c r="M62" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N62-G62=0,"",N62-G62)</f>
         <v/>
       </c>
       <c r="N62" s="11">
         <v>96</v>
       </c>
       <c r="O62" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G63" s="3">
+        <v>96</v>
+      </c>
+      <c r="H63" s="3">
+        <v>218</v>
+      </c>
+      <c r="I63" s="3">
+        <v>218</v>
+      </c>
+      <c r="J63" s="3">
+        <f>ROUND(I63*0.975,0)</f>
+        <v>213</v>
+      </c>
+      <c r="K63" s="3">
         <v>210</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G63" s="3">
-        <v>110</v>
-      </c>
-      <c r="H63" s="3">
-        <v>205</v>
-      </c>
-      <c r="I63" s="3">
-        <v>205</v>
-      </c>
-      <c r="J63" s="3">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="K63" s="3">
-        <v>198</v>
-      </c>
       <c r="L63" s="6">
-        <f t="shared" si="3"/>
-        <v>21780</v>
+        <f>G63*K63</f>
+        <v>20160</v>
       </c>
       <c r="M63" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N63-G63=0,"",N63-G63)</f>
         <v/>
       </c>
       <c r="N63" s="11">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O63" s="1">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G64" s="3">
         <v>96</v>
       </c>
       <c r="H64" s="3">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="I64" s="3">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f>ROUND(I64*0.975,0)</f>
+        <v>182</v>
       </c>
       <c r="K64" s="3">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="L64" s="6">
-        <f t="shared" si="3"/>
-        <v>19008</v>
+        <f>G64*K64</f>
+        <v>17280</v>
       </c>
       <c r="M64" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N64-G64=0,"",N64-G64)</f>
         <v/>
       </c>
       <c r="N64" s="11">
         <v>96</v>
       </c>
       <c r="O64" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="G65" s="3">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H65" s="3">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="I65" s="3">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="1"/>
-        <v>182</v>
+        <f>ROUND(I65*0.975,0)</f>
+        <v>224</v>
       </c>
       <c r="K65" s="3">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="L65" s="6">
-        <f t="shared" si="3"/>
-        <v>14040</v>
+        <f>G65*K65</f>
+        <v>21312</v>
       </c>
       <c r="M65" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N65-G65=0,"",N65-G65)</f>
         <v/>
       </c>
       <c r="N65" s="11">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="O65" s="1">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="G66" s="3">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="H66" s="3">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I66" s="3">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="1"/>
-        <v>278</v>
+        <f>ROUND(I66*0.975,0)</f>
+        <v>273</v>
       </c>
       <c r="K66" s="3">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L66" s="6">
-        <f t="shared" si="3"/>
-        <v>3300</v>
+        <f>G66*K66</f>
+        <v>25920</v>
       </c>
       <c r="M66" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N66-G66=0,"",N66-G66)</f>
         <v/>
       </c>
       <c r="N66" s="11">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="O66" s="1">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="G67" s="3">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="H67" s="3">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I67" s="3">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="1"/>
-        <v>258</v>
+        <f>ROUND(I67*0.975,0)</f>
+        <v>271</v>
       </c>
       <c r="K67" s="3">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L67" s="6">
-        <f t="shared" si="3"/>
-        <v>39780</v>
+        <f>G67*K67</f>
+        <v>25728</v>
       </c>
       <c r="M67" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N67-G67=0,"",N67-G67)</f>
         <v/>
       </c>
       <c r="N67" s="11">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="O67" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="H68" s="3">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="I68" s="3">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="1"/>
-        <v>248</v>
+        <f>ROUND(I68*0.975,0)</f>
+        <v>146</v>
       </c>
       <c r="K68" s="3">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" ref="L68:L73" si="4">G68*K68</f>
-        <v>6125</v>
+        <f>G68*K68</f>
+        <v>13920</v>
       </c>
       <c r="M68" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N68-G68=0,"",N68-G68)</f>
         <v/>
       </c>
       <c r="N68" s="11">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="O68" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>226</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="3">
         <v>96</v>
       </c>
       <c r="H69" s="3">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="I69" s="3">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" ref="J69:J73" si="5">ROUND(I69*0.975,0)</f>
-        <v>182</v>
+        <f>ROUND(I69*0.975,0)</f>
+        <v>156</v>
       </c>
       <c r="K69" s="3">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="L69" s="6">
-        <f t="shared" si="4"/>
-        <v>17280</v>
+        <f>G69*K69</f>
+        <v>14880</v>
       </c>
       <c r="M69" s="3" t="str">
-        <f t="shared" ref="M69:M73" si="6">IF(N69-G69=0,"",N69-G69)</f>
+        <f>IF(N69-G69=0,"",N69-G69)</f>
         <v/>
       </c>
       <c r="N69" s="11">
         <v>96</v>
       </c>
       <c r="O69" s="1">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>230</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F70" s="3"/>
       <c r="G70" s="3">
-        <v>545</v>
+        <v>25</v>
       </c>
       <c r="H70" s="3">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="I70" s="3">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="5"/>
-        <v>176</v>
+        <f>ROUND(I70*0.975,0)</f>
+        <v>248</v>
       </c>
       <c r="K70" s="3">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="L70" s="6">
-        <f t="shared" si="4"/>
-        <v>94285</v>
+        <f>G70*K70</f>
+        <v>6125</v>
       </c>
       <c r="M70" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(N70-G70=0,"",N70-G70)</f>
         <v/>
       </c>
       <c r="N70" s="11">
-        <v>545</v>
+        <v>25</v>
       </c>
       <c r="O70" s="1">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="G71" s="3">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H71" s="3">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="I71" s="3">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="5"/>
-        <v>247</v>
+        <f>ROUND(I71*0.975,0)</f>
+        <v>200</v>
       </c>
       <c r="K71" s="3">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="4"/>
-        <v>25376</v>
+        <f>G71*K71</f>
+        <v>21780</v>
       </c>
       <c r="M71" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(N71-G71=0,"",N71-G71)</f>
         <v/>
       </c>
       <c r="N71" s="11">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O71" s="1">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="G72" s="3">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="H72" s="3">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I72" s="3">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="5"/>
-        <v>235</v>
+        <f>ROUND(I72*0.975,0)</f>
+        <v>227</v>
       </c>
       <c r="K72" s="3">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="L72" s="6">
-        <f t="shared" si="4"/>
-        <v>18328</v>
+        <f>G72*K72</f>
+        <v>23100</v>
       </c>
       <c r="M72" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(N72-G72=0,"",N72-G72)</f>
         <v/>
       </c>
       <c r="N72" s="11">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="O72" s="1">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>241</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="3">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="H73" s="3">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="I73" s="3">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="5"/>
-        <v>226</v>
+        <f>ROUND(I73*0.975,0)</f>
+        <v>141</v>
       </c>
       <c r="K73" s="3">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="L73" s="6">
-        <f t="shared" si="4"/>
-        <v>13888</v>
+        <f>G73*K73</f>
+        <v>15400</v>
       </c>
       <c r="M73" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(N73-G73=0,"",N73-G73)</f>
         <v/>
       </c>
       <c r="N73" s="11">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="O73" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.45">
@@ -4935,7 +4935,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L75" s="8">
         <f>SUBTOTAL(9,L4:L73)</f>
@@ -4945,6 +4945,9 @@
       <c r="N75" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="A4:P73">
+    <sortCondition ref="O4:O73"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I4:I73 K4:K73">
     <cfRule type="expression" dxfId="0" priority="2">

--- a/106-2教科書/02.採購/招標議價.xlsx
+++ b/106-2教科書/02.採購/招標議價.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\106設備組\03教科書\106-2教科書\02.採購\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19414" windowHeight="7162"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="書單(總)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'書單(總)'!$A$3:$P$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'書單(總)'!$B$3:$B$73</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -800,7 +805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1085,7 +1090,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1120,7 +1125,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1336,27 +1341,28 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.15625" defaultRowHeight="16.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.9453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.47265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="6.3671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7890625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="7.15625" style="1"/>
+    <col min="1" max="1" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="7.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.350000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="21">
       <c r="A1" s="9" t="s">
         <v>252</v>
       </c>
@@ -1374,8 +1380,8 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="3.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="3.4" customHeight="1"/>
+    <row r="3" spans="1:16">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -2417,7 +2423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -2517,7 +2523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
@@ -3763,7 +3769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15">
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4163,7 +4169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4213,7 +4219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15">
       <c r="A60" s="3" t="s">
         <v>47</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15">
       <c r="A61" s="3" t="s">
         <v>8</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15">
       <c r="A62" s="3" t="s">
         <v>47</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15">
       <c r="A63" s="3" t="s">
         <v>47</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15">
       <c r="A64" s="3" t="s">
         <v>47</v>
       </c>
@@ -4463,7 +4469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15">
       <c r="A65" s="3" t="s">
         <v>47</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15">
       <c r="A66" s="3" t="s">
         <v>47</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15">
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15">
       <c r="A68" s="3" t="s">
         <v>47</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15">
       <c r="A69" s="3" t="s">
         <v>47</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15">
       <c r="A70" s="3" t="s">
         <v>8</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15">
       <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15">
       <c r="A74" s="5"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4923,7 +4929,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15">
       <c r="A75" s="5"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4945,6 +4951,7 @@
       <c r="N75" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:B73"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I4:I73 K4:K73">
     <cfRule type="expression" dxfId="0" priority="2">
